--- a/Subresultados/general.xlsx
+++ b/Subresultados/general.xlsx
@@ -15,7 +15,7 @@
     <sheet name="GACEPCHC" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="GACEPc50" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="GACEPorGRASP" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="GACEP3103_5_4" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="GACEP3103_5_4-2" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -424,10 +424,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4888,10 +4888,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9352,10 +9352,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="A1:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13816,10 +13816,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CT15" activeCellId="0" sqref="CT15"/>
+      <selection pane="topLeft" activeCell="CT15" activeCellId="0" sqref="A1:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -18280,10 +18280,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+      <selection pane="topLeft" activeCell="G32" activeCellId="1" sqref="A1:CT15 G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -22744,10 +22744,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+      <selection pane="topLeft" activeCell="G33" activeCellId="1" sqref="A1:CT15 G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -27208,10 +27208,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A1:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -31672,4449 +31672,4449 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A1:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="0" t="s">
+      <c r="BN1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="0" t="s">
+      <c r="BO1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="0" t="s">
+      <c r="BP1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="0" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="0" t="s">
+      <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="0" t="s">
+      <c r="BT1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="0" t="s">
+      <c r="BU1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="0" t="s">
+      <c r="BV1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="0" t="s">
+      <c r="BW1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="0" t="s">
+      <c r="BX1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="0" t="s">
+      <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="0" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="0" t="s">
+      <c r="CA1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="0" t="s">
+      <c r="CB1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="0" t="s">
+      <c r="CC1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="0" t="s">
+      <c r="CD1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="0" t="s">
+      <c r="CE1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="0" t="s">
+      <c r="CF1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="0" t="s">
+      <c r="CG1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="0" t="s">
+      <c r="CH1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="0" t="s">
+      <c r="CI1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="0" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="0" t="s">
+      <c r="CK1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="0" t="s">
+      <c r="CL1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="0" t="s">
+      <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="0" t="s">
+      <c r="CN1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="0" t="s">
+      <c r="CO1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="0" t="s">
+      <c r="CP1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="0" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="0" t="s">
+      <c r="CR1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="0" t="s">
+      <c r="CS1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="0" t="s">
+      <c r="CT1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>181036</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>61920.2</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>179451</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>217922</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>223818</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>53164.1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>9021</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>45123</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>229565</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>19745.9</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>14532.9</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>53608.8</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>2933.9</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>46592.2</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>60319.1</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>29792.9</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>10891.7</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>16624.1</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>30041.4</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>79087.7</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>70885.6</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>98938.6</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>23516.7</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>98917.1</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>44790.8</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>12503.1</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>39819.7</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>43060.8</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>57045.1</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>134403</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>188209</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>80627.9</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <v>45118.1</v>
-      </c>
-      <c r="AI2" s="0" t="n">
-        <v>61678.5</v>
-      </c>
-      <c r="AJ2" s="0" t="n">
-        <v>20327</v>
-      </c>
-      <c r="AK2" s="0" t="n">
-        <v>133880</v>
-      </c>
-      <c r="AL2" s="0" t="n">
-        <v>94844</v>
-      </c>
-      <c r="AM2" s="0" t="n">
-        <v>14092.7</v>
-      </c>
-      <c r="AN2" s="0" t="n">
-        <v>87398.9</v>
-      </c>
-      <c r="AO2" s="0" t="n">
-        <v>260350</v>
-      </c>
-      <c r="AP2" s="0" t="n">
-        <v>918105</v>
-      </c>
-      <c r="AQ2" s="0" t="n">
-        <v>219970</v>
-      </c>
-      <c r="AR2" s="0" t="n">
-        <v>19155.4</v>
-      </c>
-      <c r="AS2" s="0" t="n">
-        <v>71834.6</v>
-      </c>
-      <c r="AT2" s="0" t="n">
-        <v>720926</v>
-      </c>
-      <c r="AU2" s="0" t="n">
-        <v>27507.8</v>
-      </c>
-      <c r="AV2" s="0" t="n">
-        <v>611901</v>
-      </c>
-      <c r="AW2" s="0" t="n">
-        <v>713250</v>
-      </c>
-      <c r="AX2" s="0" t="n">
-        <v>540318</v>
-      </c>
-      <c r="AY2" s="0" t="n">
-        <v>29549</v>
-      </c>
-      <c r="AZ2" s="0" t="n">
-        <v>185189</v>
-      </c>
-      <c r="BA2" s="0" t="n">
-        <v>233962</v>
-      </c>
-      <c r="BB2" s="0" t="n">
-        <v>209932</v>
-      </c>
-      <c r="BC2" s="0" t="n">
-        <v>167451</v>
-      </c>
-      <c r="BD2" s="0" t="n">
-        <v>58391.2</v>
-      </c>
-      <c r="BE2" s="0" t="n">
-        <v>36876.2</v>
-      </c>
-      <c r="BF2" s="0" t="n">
-        <v>123112</v>
-      </c>
-      <c r="BG2" s="0" t="n">
-        <v>33282.7</v>
-      </c>
-      <c r="BH2" s="0" t="n">
-        <v>232593</v>
-      </c>
-      <c r="BI2" s="0" t="n">
-        <v>323638</v>
-      </c>
-      <c r="BJ2" s="0" t="n">
-        <v>164316</v>
-      </c>
-      <c r="BK2" s="0" t="n">
-        <v>174791</v>
-      </c>
-      <c r="BL2" s="0" t="n">
-        <v>164698</v>
-      </c>
-      <c r="BM2" s="0" t="n">
-        <v>470759</v>
-      </c>
-      <c r="BN2" s="0" t="n">
-        <v>406922</v>
-      </c>
-      <c r="BO2" s="0" t="n">
-        <v>164875</v>
-      </c>
-      <c r="BP2" s="0" t="n">
-        <v>274300</v>
-      </c>
-      <c r="BQ2" s="0" t="n">
-        <v>63876.1</v>
-      </c>
-      <c r="BR2" s="0" t="n">
-        <v>91387.8</v>
-      </c>
-      <c r="BS2" s="0" t="n">
-        <v>370624</v>
-      </c>
-      <c r="BT2" s="0" t="n">
-        <v>212671</v>
-      </c>
-      <c r="BU2" s="0" t="n">
-        <v>38543</v>
-      </c>
-      <c r="BV2" s="0" t="n">
-        <v>78388.1</v>
-      </c>
-      <c r="BW2" s="0" t="n">
-        <v>87530.3</v>
-      </c>
-      <c r="BX2" s="0" t="n">
-        <v>150643</v>
-      </c>
-      <c r="BY2" s="0" t="n">
-        <v>183764</v>
-      </c>
-      <c r="BZ2" s="0" t="n">
-        <v>553270</v>
-      </c>
-      <c r="CA2" s="0" t="n">
-        <v>441721</v>
-      </c>
-      <c r="CB2" s="0" t="n">
-        <v>326541</v>
-      </c>
-      <c r="CC2" s="0" t="n">
-        <v>15895.1</v>
-      </c>
-      <c r="CD2" s="0" t="n">
-        <v>217997</v>
-      </c>
-      <c r="CE2" s="0" t="n">
-        <v>393198</v>
-      </c>
-      <c r="CF2" s="0" t="n">
-        <v>8403.9</v>
-      </c>
-      <c r="CG2" s="0" t="n">
-        <v>197641</v>
-      </c>
-      <c r="CH2" s="0" t="n">
-        <v>454421</v>
-      </c>
-      <c r="CI2" s="0" t="n">
-        <v>6639</v>
-      </c>
-      <c r="CJ2" s="0" t="n">
-        <v>173499</v>
-      </c>
-      <c r="CK2" s="0" t="n">
-        <v>949904</v>
-      </c>
-      <c r="CL2" s="0" t="n">
-        <v>356335</v>
-      </c>
-      <c r="CM2" s="0" t="n">
-        <v>62297.5</v>
-      </c>
-      <c r="CN2" s="0" t="n">
-        <v>792390</v>
-      </c>
-      <c r="CO2" s="0" t="n">
-        <v>189934</v>
-      </c>
-      <c r="CP2" s="0" t="n">
-        <v>617866</v>
-      </c>
-      <c r="CQ2" s="0" t="n">
-        <v>623148</v>
-      </c>
-      <c r="CR2" s="0" t="n">
-        <v>29715.9</v>
-      </c>
-      <c r="CS2" s="0" t="n">
-        <v>657601</v>
-      </c>
-      <c r="CT2" s="0" t="n">
-        <v>643262</v>
+      <c r="B2" s="1" t="n">
+        <v>179511</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>59269.2</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>176911</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>218666</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>224460</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>57023.8</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>8645.6</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>44467.8</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>229954</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>18908.7</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>14826.8</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>53052.3</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>2833.2</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>46219</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>60314.2</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>29862</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>10048.6</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>15906.4</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>29012.4</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>80449.4</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>72386.7</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>98749.8</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>25542.8</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>99635.2</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>44991.2</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>11891</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>39851.7</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>42615.8</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>56818.1</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>135618</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>187493</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>81070</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>43467.2</v>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>59371.9</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>20250.3</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>134706</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>97602.3</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>13910.3</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>89058</v>
+      </c>
+      <c r="AO2" s="1" t="n">
+        <v>274706</v>
+      </c>
+      <c r="AP2" s="1" t="n">
+        <v>922910</v>
+      </c>
+      <c r="AQ2" s="1" t="n">
+        <v>194327</v>
+      </c>
+      <c r="AR2" s="1" t="n">
+        <v>17767.6</v>
+      </c>
+      <c r="AS2" s="1" t="n">
+        <v>58809.7</v>
+      </c>
+      <c r="AT2" s="1" t="n">
+        <v>726592</v>
+      </c>
+      <c r="AU2" s="1" t="n">
+        <v>29342.3</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>612128</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>712482</v>
+      </c>
+      <c r="AX2" s="1" t="n">
+        <v>552659</v>
+      </c>
+      <c r="AY2" s="1" t="n">
+        <v>29823.6</v>
+      </c>
+      <c r="AZ2" s="1" t="n">
+        <v>188020</v>
+      </c>
+      <c r="BA2" s="1" t="n">
+        <v>232679</v>
+      </c>
+      <c r="BB2" s="1" t="n">
+        <v>208865</v>
+      </c>
+      <c r="BC2" s="1" t="n">
+        <v>165871</v>
+      </c>
+      <c r="BD2" s="1" t="n">
+        <v>56117</v>
+      </c>
+      <c r="BE2" s="1" t="n">
+        <v>36224.6</v>
+      </c>
+      <c r="BF2" s="1" t="n">
+        <v>121114</v>
+      </c>
+      <c r="BG2" s="1" t="n">
+        <v>32154.1</v>
+      </c>
+      <c r="BH2" s="1" t="n">
+        <v>236607</v>
+      </c>
+      <c r="BI2" s="1" t="n">
+        <v>328670</v>
+      </c>
+      <c r="BJ2" s="1" t="n">
+        <v>156794</v>
+      </c>
+      <c r="BK2" s="1" t="n">
+        <v>164582</v>
+      </c>
+      <c r="BL2" s="1" t="n">
+        <v>167265</v>
+      </c>
+      <c r="BM2" s="1" t="n">
+        <v>473287</v>
+      </c>
+      <c r="BN2" s="1" t="n">
+        <v>410885</v>
+      </c>
+      <c r="BO2" s="1" t="n">
+        <v>172614</v>
+      </c>
+      <c r="BP2" s="1" t="n">
+        <v>268528</v>
+      </c>
+      <c r="BQ2" s="1" t="n">
+        <v>63721.7</v>
+      </c>
+      <c r="BR2" s="1" t="n">
+        <v>89934.4</v>
+      </c>
+      <c r="BS2" s="1" t="n">
+        <v>353567</v>
+      </c>
+      <c r="BT2" s="1" t="n">
+        <v>205065</v>
+      </c>
+      <c r="BU2" s="1" t="n">
+        <v>38251.3</v>
+      </c>
+      <c r="BV2" s="1" t="n">
+        <v>80717.9</v>
+      </c>
+      <c r="BW2" s="1" t="n">
+        <v>83680.7</v>
+      </c>
+      <c r="BX2" s="1" t="n">
+        <v>167119</v>
+      </c>
+      <c r="BY2" s="1" t="n">
+        <v>191100</v>
+      </c>
+      <c r="BZ2" s="1" t="n">
+        <v>555511</v>
+      </c>
+      <c r="CA2" s="1" t="n">
+        <v>450834</v>
+      </c>
+      <c r="CB2" s="1" t="n">
+        <v>321152</v>
+      </c>
+      <c r="CC2" s="1" t="n">
+        <v>13452.5</v>
+      </c>
+      <c r="CD2" s="1" t="n">
+        <v>217044</v>
+      </c>
+      <c r="CE2" s="1" t="n">
+        <v>397145</v>
+      </c>
+      <c r="CF2" s="1" t="n">
+        <v>9865.1</v>
+      </c>
+      <c r="CG2" s="1" t="n">
+        <v>191585</v>
+      </c>
+      <c r="CH2" s="1" t="n">
+        <v>452445</v>
+      </c>
+      <c r="CI2" s="1" t="n">
+        <v>5913.7</v>
+      </c>
+      <c r="CJ2" s="1" t="n">
+        <v>166931</v>
+      </c>
+      <c r="CK2" s="1" t="n">
+        <v>951357</v>
+      </c>
+      <c r="CL2" s="1" t="n">
+        <v>353110</v>
+      </c>
+      <c r="CM2" s="1" t="n">
+        <v>57341.4</v>
+      </c>
+      <c r="CN2" s="1" t="n">
+        <v>796657</v>
+      </c>
+      <c r="CO2" s="1" t="n">
+        <v>185128</v>
+      </c>
+      <c r="CP2" s="1" t="n">
+        <v>595844</v>
+      </c>
+      <c r="CQ2" s="1" t="n">
+        <v>630298</v>
+      </c>
+      <c r="CR2" s="1" t="n">
+        <v>30911.4</v>
+      </c>
+      <c r="CS2" s="1" t="n">
+        <v>646752</v>
+      </c>
+      <c r="CT2" s="1" t="n">
+        <v>643915</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>183010</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>63576.8</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>179748</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>219452</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>225189</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>58313.1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>9477.8</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>48795.5</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>231084</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>20643.7</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>15146.9</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>54347.5</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>3325.1</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>47152.8</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>60647.3</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>30955.4</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>11540.7</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>17228.3</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>30352.3</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>80595.9</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>74377</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>99644</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>27541.4</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>101275</v>
-      </c>
-      <c r="Z3" s="0" t="n">
-        <v>46654.2</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <v>13043.2</v>
-      </c>
-      <c r="AB3" s="0" t="n">
-        <v>42456.5</v>
-      </c>
-      <c r="AC3" s="0" t="n">
-        <v>44861.6</v>
-      </c>
-      <c r="AD3" s="0" t="n">
-        <v>58493.3</v>
-      </c>
-      <c r="AE3" s="0" t="n">
-        <v>135590</v>
-      </c>
-      <c r="AF3" s="0" t="n">
-        <v>188554</v>
-      </c>
-      <c r="AG3" s="0" t="n">
-        <v>83014</v>
-      </c>
-      <c r="AH3" s="0" t="n">
-        <v>48392.8</v>
-      </c>
-      <c r="AI3" s="0" t="n">
-        <v>64059.1</v>
-      </c>
-      <c r="AJ3" s="0" t="n">
-        <v>21976.5</v>
-      </c>
-      <c r="AK3" s="0" t="n">
-        <v>134669</v>
-      </c>
-      <c r="AL3" s="0" t="n">
-        <v>100566</v>
-      </c>
-      <c r="AM3" s="0" t="n">
-        <v>15084.2</v>
-      </c>
-      <c r="AN3" s="0" t="n">
-        <v>90824.7</v>
-      </c>
-      <c r="AO3" s="0" t="n">
-        <v>282135</v>
-      </c>
-      <c r="AP3" s="0" t="n">
-        <v>924863</v>
-      </c>
-      <c r="AQ3" s="0" t="n">
-        <v>224528</v>
-      </c>
-      <c r="AR3" s="0" t="n">
-        <v>23662.8</v>
-      </c>
-      <c r="AS3" s="0" t="n">
-        <v>75438</v>
-      </c>
-      <c r="AT3" s="0" t="n">
-        <v>734162</v>
-      </c>
-      <c r="AU3" s="0" t="n">
-        <v>32443.6</v>
-      </c>
-      <c r="AV3" s="0" t="n">
-        <v>619593</v>
-      </c>
-      <c r="AW3" s="0" t="n">
-        <v>726970</v>
-      </c>
-      <c r="AX3" s="0" t="n">
-        <v>553447</v>
-      </c>
-      <c r="AY3" s="0" t="n">
-        <v>31829.4</v>
-      </c>
-      <c r="AZ3" s="0" t="n">
-        <v>189403</v>
-      </c>
-      <c r="BA3" s="0" t="n">
-        <v>235248</v>
-      </c>
-      <c r="BB3" s="0" t="n">
-        <v>212364</v>
-      </c>
-      <c r="BC3" s="0" t="n">
-        <v>171087</v>
-      </c>
-      <c r="BD3" s="0" t="n">
-        <v>60581</v>
-      </c>
-      <c r="BE3" s="0" t="n">
-        <v>42692.5</v>
-      </c>
-      <c r="BF3" s="0" t="n">
-        <v>127294</v>
-      </c>
-      <c r="BG3" s="0" t="n">
-        <v>34640</v>
-      </c>
-      <c r="BH3" s="0" t="n">
-        <v>242599</v>
-      </c>
-      <c r="BI3" s="0" t="n">
-        <v>334912</v>
-      </c>
-      <c r="BJ3" s="0" t="n">
-        <v>170730</v>
-      </c>
-      <c r="BK3" s="0" t="n">
-        <v>181867</v>
-      </c>
-      <c r="BL3" s="0" t="n">
-        <v>174277</v>
-      </c>
-      <c r="BM3" s="0" t="n">
-        <v>474303</v>
-      </c>
-      <c r="BN3" s="0" t="n">
-        <v>411447</v>
-      </c>
-      <c r="BO3" s="0" t="n">
-        <v>178031</v>
-      </c>
-      <c r="BP3" s="0" t="n">
-        <v>276272</v>
-      </c>
-      <c r="BQ3" s="0" t="n">
-        <v>70853.9</v>
-      </c>
-      <c r="BR3" s="0" t="n">
-        <v>99550.8</v>
-      </c>
-      <c r="BS3" s="0" t="n">
-        <v>377249</v>
-      </c>
-      <c r="BT3" s="0" t="n">
-        <v>223196</v>
-      </c>
-      <c r="BU3" s="0" t="n">
-        <v>41258</v>
-      </c>
-      <c r="BV3" s="0" t="n">
-        <v>89566.7</v>
-      </c>
-      <c r="BW3" s="0" t="n">
-        <v>93180.8</v>
-      </c>
-      <c r="BX3" s="0" t="n">
-        <v>171162</v>
-      </c>
-      <c r="BY3" s="0" t="n">
-        <v>196411</v>
-      </c>
-      <c r="BZ3" s="0" t="n">
-        <v>559124</v>
-      </c>
-      <c r="CA3" s="0" t="n">
-        <v>456075</v>
-      </c>
-      <c r="CB3" s="0" t="n">
-        <v>332823</v>
-      </c>
-      <c r="CC3" s="0" t="n">
-        <v>18211.6</v>
-      </c>
-      <c r="CD3" s="0" t="n">
-        <v>224886</v>
-      </c>
-      <c r="CE3" s="0" t="n">
-        <v>402089</v>
-      </c>
-      <c r="CF3" s="0" t="n">
-        <v>10946</v>
-      </c>
-      <c r="CG3" s="0" t="n">
-        <v>203076</v>
-      </c>
-      <c r="CH3" s="0" t="n">
-        <v>458417</v>
-      </c>
-      <c r="CI3" s="0" t="n">
-        <v>7737.7</v>
-      </c>
-      <c r="CJ3" s="0" t="n">
-        <v>184954</v>
-      </c>
-      <c r="CK3" s="0" t="n">
-        <v>958694</v>
-      </c>
-      <c r="CL3" s="0" t="n">
-        <v>363984</v>
-      </c>
-      <c r="CM3" s="0" t="n">
-        <v>70884.5</v>
-      </c>
-      <c r="CN3" s="0" t="n">
-        <v>802489</v>
-      </c>
-      <c r="CO3" s="0" t="n">
-        <v>205516</v>
-      </c>
-      <c r="CP3" s="0" t="n">
-        <v>630784</v>
-      </c>
-      <c r="CQ3" s="0" t="n">
-        <v>634246</v>
-      </c>
-      <c r="CR3" s="0" t="n">
-        <v>31651.8</v>
-      </c>
-      <c r="CS3" s="0" t="n">
-        <v>667495</v>
-      </c>
-      <c r="CT3" s="0" t="n">
-        <v>651316</v>
+      <c r="B3" s="1" t="n">
+        <v>182902</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>65548</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>180625</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>219995</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>225415</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>60167.1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>9386</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>47812.5</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>230731</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>20157.6</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>15262.9</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>53534.1</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>3165.7</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>46738.1</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>60679.2</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>31234.8</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>11348.3</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>16648.4</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>30363.3</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>81099.6</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>73814.7</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>99075.2</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>27919.1</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>101838</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>46467.9</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>12418.4</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>43682.3</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>44613.9</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>59848.3</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>137104</v>
+      </c>
+      <c r="AF3" s="1" t="n">
+        <v>187988</v>
+      </c>
+      <c r="AG3" s="1" t="n">
+        <v>83957.7</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>46888.8</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>62611.5</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>23232.8</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>136792</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>100340</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>15181.2</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>91466.9</v>
+      </c>
+      <c r="AO3" s="1" t="n">
+        <v>288448</v>
+      </c>
+      <c r="AP3" s="1" t="n">
+        <v>926269</v>
+      </c>
+      <c r="AQ3" s="1" t="n">
+        <v>212666</v>
+      </c>
+      <c r="AR3" s="1" t="n">
+        <v>21401.3</v>
+      </c>
+      <c r="AS3" s="1" t="n">
+        <v>68375.9</v>
+      </c>
+      <c r="AT3" s="1" t="n">
+        <v>737024</v>
+      </c>
+      <c r="AU3" s="1" t="n">
+        <v>32337.1</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>627449</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>728193</v>
+      </c>
+      <c r="AX3" s="1" t="n">
+        <v>558718</v>
+      </c>
+      <c r="AY3" s="1" t="n">
+        <v>32753</v>
+      </c>
+      <c r="AZ3" s="1" t="n">
+        <v>191749</v>
+      </c>
+      <c r="BA3" s="1" t="n">
+        <v>234191</v>
+      </c>
+      <c r="BB3" s="1" t="n">
+        <v>210204</v>
+      </c>
+      <c r="BC3" s="1" t="n">
+        <v>171353</v>
+      </c>
+      <c r="BD3" s="1" t="n">
+        <v>59642.1</v>
+      </c>
+      <c r="BE3" s="1" t="n">
+        <v>38920.9</v>
+      </c>
+      <c r="BF3" s="1" t="n">
+        <v>124428</v>
+      </c>
+      <c r="BG3" s="1" t="n">
+        <v>34657.5</v>
+      </c>
+      <c r="BH3" s="1" t="n">
+        <v>240773</v>
+      </c>
+      <c r="BI3" s="1" t="n">
+        <v>331679</v>
+      </c>
+      <c r="BJ3" s="1" t="n">
+        <v>166982</v>
+      </c>
+      <c r="BK3" s="1" t="n">
+        <v>174347</v>
+      </c>
+      <c r="BL3" s="1" t="n">
+        <v>173511</v>
+      </c>
+      <c r="BM3" s="1" t="n">
+        <v>474639</v>
+      </c>
+      <c r="BN3" s="1" t="n">
+        <v>411837</v>
+      </c>
+      <c r="BO3" s="1" t="n">
+        <v>177297</v>
+      </c>
+      <c r="BP3" s="1" t="n">
+        <v>274862</v>
+      </c>
+      <c r="BQ3" s="1" t="n">
+        <v>69614.6</v>
+      </c>
+      <c r="BR3" s="1" t="n">
+        <v>94646.6</v>
+      </c>
+      <c r="BS3" s="1" t="n">
+        <v>367228</v>
+      </c>
+      <c r="BT3" s="1" t="n">
+        <v>218548</v>
+      </c>
+      <c r="BU3" s="1" t="n">
+        <v>42385.5</v>
+      </c>
+      <c r="BV3" s="1" t="n">
+        <v>83192.7</v>
+      </c>
+      <c r="BW3" s="1" t="n">
+        <v>94166.1</v>
+      </c>
+      <c r="BX3" s="1" t="n">
+        <v>174494</v>
+      </c>
+      <c r="BY3" s="1" t="n">
+        <v>200310</v>
+      </c>
+      <c r="BZ3" s="1" t="n">
+        <v>561002</v>
+      </c>
+      <c r="CA3" s="1" t="n">
+        <v>459560</v>
+      </c>
+      <c r="CB3" s="1" t="n">
+        <v>325546</v>
+      </c>
+      <c r="CC3" s="1" t="n">
+        <v>16712.4</v>
+      </c>
+      <c r="CD3" s="1" t="n">
+        <v>226546</v>
+      </c>
+      <c r="CE3" s="1" t="n">
+        <v>403872</v>
+      </c>
+      <c r="CF3" s="1" t="n">
+        <v>11142.6</v>
+      </c>
+      <c r="CG3" s="1" t="n">
+        <v>202885</v>
+      </c>
+      <c r="CH3" s="1" t="n">
+        <v>458930</v>
+      </c>
+      <c r="CI3" s="1" t="n">
+        <v>7845.6</v>
+      </c>
+      <c r="CJ3" s="1" t="n">
+        <v>182244</v>
+      </c>
+      <c r="CK3" s="1" t="n">
+        <v>955788</v>
+      </c>
+      <c r="CL3" s="1" t="n">
+        <v>374242</v>
+      </c>
+      <c r="CM3" s="1" t="n">
+        <v>65241.1</v>
+      </c>
+      <c r="CN3" s="1" t="n">
+        <v>803070</v>
+      </c>
+      <c r="CO3" s="1" t="n">
+        <v>199672</v>
+      </c>
+      <c r="CP3" s="1" t="n">
+        <v>620256</v>
+      </c>
+      <c r="CQ3" s="1" t="n">
+        <v>633456</v>
+      </c>
+      <c r="CR3" s="1" t="n">
+        <v>32909.1</v>
+      </c>
+      <c r="CS3" s="1" t="n">
+        <v>663283</v>
+      </c>
+      <c r="CT3" s="1" t="n">
+        <v>662154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>183418</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>65764.7</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>181856</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>220396</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>225544</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>59926.1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>9924.4</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>50200.7</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>231090</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>20657.2</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>15435.5</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>54758.2</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>3371.8</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>47488.9</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>60645.9</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>31301.8</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>12087.5</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>17605.7</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>30638.7</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>81067.6</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>74790.7</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>100601</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>28134.4</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>101591</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>47292</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>13244.8</v>
-      </c>
-      <c r="AB4" s="0" t="n">
-        <v>43548.4</v>
-      </c>
-      <c r="AC4" s="0" t="n">
-        <v>45420.8</v>
-      </c>
-      <c r="AD4" s="0" t="n">
-        <v>59372.9</v>
-      </c>
-      <c r="AE4" s="0" t="n">
-        <v>136532</v>
-      </c>
-      <c r="AF4" s="0" t="n">
-        <v>188576</v>
-      </c>
-      <c r="AG4" s="0" t="n">
-        <v>83632.3</v>
-      </c>
-      <c r="AH4" s="0" t="n">
-        <v>48858.7</v>
-      </c>
-      <c r="AI4" s="0" t="n">
-        <v>64468.8</v>
-      </c>
-      <c r="AJ4" s="0" t="n">
-        <v>22765.9</v>
-      </c>
-      <c r="AK4" s="0" t="n">
-        <v>135602</v>
-      </c>
-      <c r="AL4" s="0" t="n">
-        <v>100533</v>
-      </c>
-      <c r="AM4" s="0" t="n">
-        <v>15710</v>
-      </c>
-      <c r="AN4" s="0" t="n">
-        <v>92299.2</v>
-      </c>
-      <c r="AO4" s="0" t="n">
-        <v>292136</v>
-      </c>
-      <c r="AP4" s="0" t="n">
-        <v>926171</v>
-      </c>
-      <c r="AQ4" s="0" t="n">
-        <v>233679</v>
-      </c>
-      <c r="AR4" s="0" t="n">
-        <v>23922.2</v>
-      </c>
-      <c r="AS4" s="0" t="n">
-        <v>76089.5</v>
-      </c>
-      <c r="AT4" s="0" t="n">
-        <v>741227</v>
-      </c>
-      <c r="AU4" s="0" t="n">
-        <v>35283.2</v>
-      </c>
-      <c r="AV4" s="0" t="n">
-        <v>626343</v>
-      </c>
-      <c r="AW4" s="0" t="n">
-        <v>737322</v>
-      </c>
-      <c r="AX4" s="0" t="n">
-        <v>563920</v>
-      </c>
-      <c r="AY4" s="0" t="n">
-        <v>33668.4</v>
-      </c>
-      <c r="AZ4" s="0" t="n">
-        <v>191560</v>
-      </c>
-      <c r="BA4" s="0" t="n">
-        <v>235179</v>
-      </c>
-      <c r="BB4" s="0" t="n">
-        <v>212624</v>
-      </c>
-      <c r="BC4" s="0" t="n">
-        <v>171530</v>
-      </c>
-      <c r="BD4" s="0" t="n">
-        <v>61158.5</v>
-      </c>
-      <c r="BE4" s="0" t="n">
-        <v>43589.7</v>
-      </c>
-      <c r="BF4" s="0" t="n">
-        <v>127800</v>
-      </c>
-      <c r="BG4" s="0" t="n">
-        <v>35384.5</v>
-      </c>
-      <c r="BH4" s="0" t="n">
-        <v>245299</v>
-      </c>
-      <c r="BI4" s="0" t="n">
-        <v>337183</v>
-      </c>
-      <c r="BJ4" s="0" t="n">
-        <v>173015</v>
-      </c>
-      <c r="BK4" s="0" t="n">
-        <v>186741</v>
-      </c>
-      <c r="BL4" s="0" t="n">
-        <v>178988</v>
-      </c>
-      <c r="BM4" s="0" t="n">
-        <v>474856</v>
-      </c>
-      <c r="BN4" s="0" t="n">
-        <v>413239</v>
-      </c>
-      <c r="BO4" s="0" t="n">
-        <v>181046</v>
-      </c>
-      <c r="BP4" s="0" t="n">
-        <v>279010</v>
-      </c>
-      <c r="BQ4" s="0" t="n">
-        <v>75928.8</v>
-      </c>
-      <c r="BR4" s="0" t="n">
-        <v>101739</v>
-      </c>
-      <c r="BS4" s="0" t="n">
-        <v>381543</v>
-      </c>
-      <c r="BT4" s="0" t="n">
-        <v>227046</v>
-      </c>
-      <c r="BU4" s="0" t="n">
-        <v>45346.2</v>
-      </c>
-      <c r="BV4" s="0" t="n">
-        <v>91752.6</v>
-      </c>
-      <c r="BW4" s="0" t="n">
-        <v>98615.4</v>
-      </c>
-      <c r="BX4" s="0" t="n">
-        <v>175391</v>
-      </c>
-      <c r="BY4" s="0" t="n">
-        <v>199950</v>
-      </c>
-      <c r="BZ4" s="0" t="n">
-        <v>561242</v>
-      </c>
-      <c r="CA4" s="0" t="n">
-        <v>464872</v>
-      </c>
-      <c r="CB4" s="0" t="n">
-        <v>334603</v>
-      </c>
-      <c r="CC4" s="0" t="n">
-        <v>20132.9</v>
-      </c>
-      <c r="CD4" s="0" t="n">
-        <v>230443</v>
-      </c>
-      <c r="CE4" s="0" t="n">
-        <v>404499</v>
-      </c>
-      <c r="CF4" s="0" t="n">
-        <v>11837.1</v>
-      </c>
-      <c r="CG4" s="0" t="n">
-        <v>205232</v>
-      </c>
-      <c r="CH4" s="0" t="n">
-        <v>462120</v>
-      </c>
-      <c r="CI4" s="0" t="n">
-        <v>8214.7</v>
-      </c>
-      <c r="CJ4" s="0" t="n">
-        <v>187808</v>
-      </c>
-      <c r="CK4" s="0" t="n">
-        <v>962955</v>
-      </c>
-      <c r="CL4" s="0" t="n">
-        <v>374620</v>
-      </c>
-      <c r="CM4" s="0" t="n">
-        <v>72666.5</v>
-      </c>
-      <c r="CN4" s="0" t="n">
-        <v>807929</v>
-      </c>
-      <c r="CO4" s="0" t="n">
-        <v>218495</v>
-      </c>
-      <c r="CP4" s="0" t="n">
-        <v>635658</v>
-      </c>
-      <c r="CQ4" s="0" t="n">
-        <v>639435</v>
-      </c>
-      <c r="CR4" s="0" t="n">
-        <v>32950.9</v>
-      </c>
-      <c r="CS4" s="0" t="n">
-        <v>668522</v>
-      </c>
-      <c r="CT4" s="0" t="n">
-        <v>666000</v>
+      <c r="B4" s="1" t="n">
+        <v>183374</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>67463.1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>180942</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>220669</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>225784</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>62097.6</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>9931.3</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>51596.1</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>231396</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>20249.9</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>15742.9</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>53874.2</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>3135.3</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>47042.7</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>60737</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>32070.7</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>11701.6</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>17201.9</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>31373.6</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>82296.6</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>74757.8</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>100013</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>28862.4</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>102068</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>47123</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>12891.2</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>44213.2</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>45237.8</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>60363.8</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>137827</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>188412</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>84485.1</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>48085.6</v>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>63590.1</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>23756.1</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>138449</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>102155</v>
+      </c>
+      <c r="AM4" s="1" t="n">
+        <v>16150.8</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>91577.9</v>
+      </c>
+      <c r="AO4" s="1" t="n">
+        <v>297729</v>
+      </c>
+      <c r="AP4" s="1" t="n">
+        <v>928605</v>
+      </c>
+      <c r="AQ4" s="1" t="n">
+        <v>225065</v>
+      </c>
+      <c r="AR4" s="1" t="n">
+        <v>22610.8</v>
+      </c>
+      <c r="AS4" s="1" t="n">
+        <v>71822.6</v>
+      </c>
+      <c r="AT4" s="1" t="n">
+        <v>738890</v>
+      </c>
+      <c r="AU4" s="1" t="n">
+        <v>34860.6</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>630517</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>738554</v>
+      </c>
+      <c r="AX4" s="1" t="n">
+        <v>569981</v>
+      </c>
+      <c r="AY4" s="1" t="n">
+        <v>33355.1</v>
+      </c>
+      <c r="AZ4" s="1" t="n">
+        <v>192854</v>
+      </c>
+      <c r="BA4" s="1" t="n">
+        <v>234968</v>
+      </c>
+      <c r="BB4" s="1" t="n">
+        <v>211530</v>
+      </c>
+      <c r="BC4" s="1" t="n">
+        <v>171356</v>
+      </c>
+      <c r="BD4" s="1" t="n">
+        <v>61767.3</v>
+      </c>
+      <c r="BE4" s="1" t="n">
+        <v>40415.2</v>
+      </c>
+      <c r="BF4" s="1" t="n">
+        <v>128037</v>
+      </c>
+      <c r="BG4" s="1" t="n">
+        <v>34739.5</v>
+      </c>
+      <c r="BH4" s="1" t="n">
+        <v>246963</v>
+      </c>
+      <c r="BI4" s="1" t="n">
+        <v>336480</v>
+      </c>
+      <c r="BJ4" s="1" t="n">
+        <v>168863</v>
+      </c>
+      <c r="BK4" s="1" t="n">
+        <v>178016</v>
+      </c>
+      <c r="BL4" s="1" t="n">
+        <v>179881</v>
+      </c>
+      <c r="BM4" s="1" t="n">
+        <v>475795</v>
+      </c>
+      <c r="BN4" s="1" t="n">
+        <v>413685</v>
+      </c>
+      <c r="BO4" s="1" t="n">
+        <v>181703</v>
+      </c>
+      <c r="BP4" s="1" t="n">
+        <v>281831</v>
+      </c>
+      <c r="BQ4" s="1" t="n">
+        <v>74036.1</v>
+      </c>
+      <c r="BR4" s="1" t="n">
+        <v>100350</v>
+      </c>
+      <c r="BS4" s="1" t="n">
+        <v>376014</v>
+      </c>
+      <c r="BT4" s="1" t="n">
+        <v>219232</v>
+      </c>
+      <c r="BU4" s="1" t="n">
+        <v>43486.4</v>
+      </c>
+      <c r="BV4" s="1" t="n">
+        <v>87978.4</v>
+      </c>
+      <c r="BW4" s="1" t="n">
+        <v>98013.7</v>
+      </c>
+      <c r="BX4" s="1" t="n">
+        <v>180440</v>
+      </c>
+      <c r="BY4" s="1" t="n">
+        <v>211335</v>
+      </c>
+      <c r="BZ4" s="1" t="n">
+        <v>562815</v>
+      </c>
+      <c r="CA4" s="1" t="n">
+        <v>466343</v>
+      </c>
+      <c r="CB4" s="1" t="n">
+        <v>328331</v>
+      </c>
+      <c r="CC4" s="1" t="n">
+        <v>18025.8</v>
+      </c>
+      <c r="CD4" s="1" t="n">
+        <v>228609</v>
+      </c>
+      <c r="CE4" s="1" t="n">
+        <v>406917</v>
+      </c>
+      <c r="CF4" s="1" t="n">
+        <v>11317.4</v>
+      </c>
+      <c r="CG4" s="1" t="n">
+        <v>205354</v>
+      </c>
+      <c r="CH4" s="1" t="n">
+        <v>461531</v>
+      </c>
+      <c r="CI4" s="1" t="n">
+        <v>8076</v>
+      </c>
+      <c r="CJ4" s="1" t="n">
+        <v>184496</v>
+      </c>
+      <c r="CK4" s="1" t="n">
+        <v>960943</v>
+      </c>
+      <c r="CL4" s="1" t="n">
+        <v>385485</v>
+      </c>
+      <c r="CM4" s="1" t="n">
+        <v>67634.8</v>
+      </c>
+      <c r="CN4" s="1" t="n">
+        <v>803119</v>
+      </c>
+      <c r="CO4" s="1" t="n">
+        <v>207670</v>
+      </c>
+      <c r="CP4" s="1" t="n">
+        <v>624475</v>
+      </c>
+      <c r="CQ4" s="1" t="n">
+        <v>637735</v>
+      </c>
+      <c r="CR4" s="1" t="n">
+        <v>34506.7</v>
+      </c>
+      <c r="CS4" s="1" t="n">
+        <v>673917</v>
+      </c>
+      <c r="CT4" s="1" t="n">
+        <v>673554</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>184355</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>68939.9</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>183358</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>220919</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>226890</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>62488</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>10011.5</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>52710.2</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>231599</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>20965.2</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>15813.6</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>55041.4</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>3427.9</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>47771</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>60913.5</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>32104.9</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>12701</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>18121.4</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>31478.2</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>82152.5</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>75332.9</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>101096</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>29002.7</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>102039</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>48136.1</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>13633</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>44727.6</v>
-      </c>
-      <c r="AC5" s="0" t="n">
-        <v>47298.2</v>
-      </c>
-      <c r="AD5" s="0" t="n">
-        <v>59889.4</v>
-      </c>
-      <c r="AE5" s="0" t="n">
-        <v>136738</v>
-      </c>
-      <c r="AF5" s="0" t="n">
-        <v>188895</v>
-      </c>
-      <c r="AG5" s="0" t="n">
-        <v>85833.9</v>
-      </c>
-      <c r="AH5" s="0" t="n">
-        <v>50627</v>
-      </c>
-      <c r="AI5" s="0" t="n">
-        <v>65391.3</v>
-      </c>
-      <c r="AJ5" s="0" t="n">
-        <v>24742.6</v>
-      </c>
-      <c r="AK5" s="0" t="n">
-        <v>136925</v>
-      </c>
-      <c r="AL5" s="0" t="n">
-        <v>101975</v>
-      </c>
-      <c r="AM5" s="0" t="n">
-        <v>16460.7</v>
-      </c>
-      <c r="AN5" s="0" t="n">
-        <v>93968.4</v>
-      </c>
-      <c r="AO5" s="0" t="n">
-        <v>301217</v>
-      </c>
-      <c r="AP5" s="0" t="n">
-        <v>930126</v>
-      </c>
-      <c r="AQ5" s="0" t="n">
-        <v>235302</v>
-      </c>
-      <c r="AR5" s="0" t="n">
-        <v>27090.4</v>
-      </c>
-      <c r="AS5" s="0" t="n">
-        <v>81629.1</v>
-      </c>
-      <c r="AT5" s="0" t="n">
-        <v>742505</v>
-      </c>
-      <c r="AU5" s="0" t="n">
-        <v>37868.9</v>
-      </c>
-      <c r="AV5" s="0" t="n">
-        <v>636223</v>
-      </c>
-      <c r="AW5" s="0" t="n">
-        <v>745828</v>
-      </c>
-      <c r="AX5" s="0" t="n">
-        <v>570577</v>
-      </c>
-      <c r="AY5" s="0" t="n">
-        <v>35037.9</v>
-      </c>
-      <c r="AZ5" s="0" t="n">
-        <v>193123</v>
-      </c>
-      <c r="BA5" s="0" t="n">
-        <v>235883</v>
-      </c>
-      <c r="BB5" s="0" t="n">
-        <v>214165</v>
-      </c>
-      <c r="BC5" s="0" t="n">
-        <v>172841</v>
-      </c>
-      <c r="BD5" s="0" t="n">
-        <v>62593.7</v>
-      </c>
-      <c r="BE5" s="0" t="n">
-        <v>44280.2</v>
-      </c>
-      <c r="BF5" s="0" t="n">
-        <v>129692</v>
-      </c>
-      <c r="BG5" s="0" t="n">
-        <v>39565.8</v>
-      </c>
-      <c r="BH5" s="0" t="n">
-        <v>248987</v>
-      </c>
-      <c r="BI5" s="0" t="n">
-        <v>340817</v>
-      </c>
-      <c r="BJ5" s="0" t="n">
-        <v>176119</v>
-      </c>
-      <c r="BK5" s="0" t="n">
-        <v>190209</v>
-      </c>
-      <c r="BL5" s="0" t="n">
-        <v>181816</v>
-      </c>
-      <c r="BM5" s="0" t="n">
-        <v>475706</v>
-      </c>
-      <c r="BN5" s="0" t="n">
-        <v>413989</v>
-      </c>
-      <c r="BO5" s="0" t="n">
-        <v>184164</v>
-      </c>
-      <c r="BP5" s="0" t="n">
-        <v>281624</v>
-      </c>
-      <c r="BQ5" s="0" t="n">
-        <v>79101.4</v>
-      </c>
-      <c r="BR5" s="0" t="n">
-        <v>105588</v>
-      </c>
-      <c r="BS5" s="0" t="n">
-        <v>385248</v>
-      </c>
-      <c r="BT5" s="0" t="n">
-        <v>231573</v>
-      </c>
-      <c r="BU5" s="0" t="n">
-        <v>49257.2</v>
-      </c>
-      <c r="BV5" s="0" t="n">
-        <v>92684.6</v>
-      </c>
-      <c r="BW5" s="0" t="n">
-        <v>102715</v>
-      </c>
-      <c r="BX5" s="0" t="n">
-        <v>180804</v>
-      </c>
-      <c r="BY5" s="0" t="n">
-        <v>206463</v>
-      </c>
-      <c r="BZ5" s="0" t="n">
-        <v>566664</v>
-      </c>
-      <c r="CA5" s="0" t="n">
-        <v>470081</v>
-      </c>
-      <c r="CB5" s="0" t="n">
-        <v>338719</v>
-      </c>
-      <c r="CC5" s="0" t="n">
-        <v>21842.8</v>
-      </c>
-      <c r="CD5" s="0" t="n">
-        <v>233474</v>
-      </c>
-      <c r="CE5" s="0" t="n">
-        <v>406883</v>
-      </c>
-      <c r="CF5" s="0" t="n">
-        <v>12909.5</v>
-      </c>
-      <c r="CG5" s="0" t="n">
-        <v>215526</v>
-      </c>
-      <c r="CH5" s="0" t="n">
-        <v>464969</v>
-      </c>
-      <c r="CI5" s="0" t="n">
-        <v>8578.4</v>
-      </c>
-      <c r="CJ5" s="0" t="n">
-        <v>193476</v>
-      </c>
-      <c r="CK5" s="0" t="n">
-        <v>966924</v>
-      </c>
-      <c r="CL5" s="0" t="n">
-        <v>387368</v>
-      </c>
-      <c r="CM5" s="0" t="n">
-        <v>75143</v>
-      </c>
-      <c r="CN5" s="0" t="n">
-        <v>816361</v>
-      </c>
-      <c r="CO5" s="0" t="n">
-        <v>227006</v>
-      </c>
-      <c r="CP5" s="0" t="n">
-        <v>651329</v>
-      </c>
-      <c r="CQ5" s="0" t="n">
-        <v>648624</v>
-      </c>
-      <c r="CR5" s="0" t="n">
-        <v>35789.5</v>
-      </c>
-      <c r="CS5" s="0" t="n">
-        <v>676975</v>
-      </c>
-      <c r="CT5" s="0" t="n">
-        <v>675496</v>
+      <c r="B5" s="1" t="n">
+        <v>185719</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>71001</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>182865</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>220687</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>226622</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>64156.9</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>9987.9</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>52683.7</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>231531</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>20644.2</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>16221.3</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>54493.2</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>3464.2</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>47973.6</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>60805.1</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>32330.7</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>12368.3</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>18088.2</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>31805.3</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>83826.8</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>76863.9</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>101653</v>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>29633.2</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>103004</v>
+      </c>
+      <c r="Z5" s="1" t="n">
+        <v>48860.6</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>13492.2</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>45020.4</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>46857.5</v>
+      </c>
+      <c r="AD5" s="1" t="n">
+        <v>62934.4</v>
+      </c>
+      <c r="AE5" s="1" t="n">
+        <v>139493</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>188647</v>
+      </c>
+      <c r="AG5" s="1" t="n">
+        <v>87099.8</v>
+      </c>
+      <c r="AH5" s="1" t="n">
+        <v>51805.4</v>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>66273.5</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
+        <v>24738</v>
+      </c>
+      <c r="AK5" s="1" t="n">
+        <v>140727</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>103602</v>
+      </c>
+      <c r="AM5" s="1" t="n">
+        <v>17891.4</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>93778.8</v>
+      </c>
+      <c r="AO5" s="1" t="n">
+        <v>306893</v>
+      </c>
+      <c r="AP5" s="1" t="n">
+        <v>932085</v>
+      </c>
+      <c r="AQ5" s="1" t="n">
+        <v>229209</v>
+      </c>
+      <c r="AR5" s="1" t="n">
+        <v>26060.8</v>
+      </c>
+      <c r="AS5" s="1" t="n">
+        <v>78597.3</v>
+      </c>
+      <c r="AT5" s="1" t="n">
+        <v>749278</v>
+      </c>
+      <c r="AU5" s="1" t="n">
+        <v>36284.6</v>
+      </c>
+      <c r="AV5" s="1" t="n">
+        <v>640211</v>
+      </c>
+      <c r="AW5" s="1" t="n">
+        <v>753959</v>
+      </c>
+      <c r="AX5" s="1" t="n">
+        <v>580198</v>
+      </c>
+      <c r="AY5" s="1" t="n">
+        <v>35996.4</v>
+      </c>
+      <c r="AZ5" s="1" t="n">
+        <v>194338</v>
+      </c>
+      <c r="BA5" s="1" t="n">
+        <v>235819</v>
+      </c>
+      <c r="BB5" s="1" t="n">
+        <v>214190</v>
+      </c>
+      <c r="BC5" s="1" t="n">
+        <v>175217</v>
+      </c>
+      <c r="BD5" s="1" t="n">
+        <v>64071.5</v>
+      </c>
+      <c r="BE5" s="1" t="n">
+        <v>43249.3</v>
+      </c>
+      <c r="BF5" s="1" t="n">
+        <v>132680</v>
+      </c>
+      <c r="BG5" s="1" t="n">
+        <v>37008.2</v>
+      </c>
+      <c r="BH5" s="1" t="n">
+        <v>252510</v>
+      </c>
+      <c r="BI5" s="1" t="n">
+        <v>340746</v>
+      </c>
+      <c r="BJ5" s="1" t="n">
+        <v>174873</v>
+      </c>
+      <c r="BK5" s="1" t="n">
+        <v>186123</v>
+      </c>
+      <c r="BL5" s="1" t="n">
+        <v>185682</v>
+      </c>
+      <c r="BM5" s="1" t="n">
+        <v>476706</v>
+      </c>
+      <c r="BN5" s="1" t="n">
+        <v>416527</v>
+      </c>
+      <c r="BO5" s="1" t="n">
+        <v>187775</v>
+      </c>
+      <c r="BP5" s="1" t="n">
+        <v>287636</v>
+      </c>
+      <c r="BQ5" s="1" t="n">
+        <v>80446.6</v>
+      </c>
+      <c r="BR5" s="1" t="n">
+        <v>108043</v>
+      </c>
+      <c r="BS5" s="1" t="n">
+        <v>383095</v>
+      </c>
+      <c r="BT5" s="1" t="n">
+        <v>229590</v>
+      </c>
+      <c r="BU5" s="1" t="n">
+        <v>47704.4</v>
+      </c>
+      <c r="BV5" s="1" t="n">
+        <v>90970</v>
+      </c>
+      <c r="BW5" s="1" t="n">
+        <v>105189</v>
+      </c>
+      <c r="BX5" s="1" t="n">
+        <v>189314</v>
+      </c>
+      <c r="BY5" s="1" t="n">
+        <v>219074</v>
+      </c>
+      <c r="BZ5" s="1" t="n">
+        <v>567270</v>
+      </c>
+      <c r="CA5" s="1" t="n">
+        <v>470368</v>
+      </c>
+      <c r="CB5" s="1" t="n">
+        <v>332197</v>
+      </c>
+      <c r="CC5" s="1" t="n">
+        <v>21097.2</v>
+      </c>
+      <c r="CD5" s="1" t="n">
+        <v>234004</v>
+      </c>
+      <c r="CE5" s="1" t="n">
+        <v>410460</v>
+      </c>
+      <c r="CF5" s="1" t="n">
+        <v>12156.9</v>
+      </c>
+      <c r="CG5" s="1" t="n">
+        <v>212199</v>
+      </c>
+      <c r="CH5" s="1" t="n">
+        <v>464703</v>
+      </c>
+      <c r="CI5" s="1" t="n">
+        <v>8641.3</v>
+      </c>
+      <c r="CJ5" s="1" t="n">
+        <v>191284</v>
+      </c>
+      <c r="CK5" s="1" t="n">
+        <v>963013</v>
+      </c>
+      <c r="CL5" s="1" t="n">
+        <v>397117</v>
+      </c>
+      <c r="CM5" s="1" t="n">
+        <v>73219.9</v>
+      </c>
+      <c r="CN5" s="1" t="n">
+        <v>819353</v>
+      </c>
+      <c r="CO5" s="1" t="n">
+        <v>228353</v>
+      </c>
+      <c r="CP5" s="1" t="n">
+        <v>646304</v>
+      </c>
+      <c r="CQ5" s="1" t="n">
+        <v>649543</v>
+      </c>
+      <c r="CR5" s="1" t="n">
+        <v>36203</v>
+      </c>
+      <c r="CS5" s="1" t="n">
+        <v>683691</v>
+      </c>
+      <c r="CT5" s="1" t="n">
+        <v>689076</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>187248</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>73220.4</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>185199</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>221677</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>228525</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>65658.2</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>10060.7</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>55894.6</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>231598</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>21815.6</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>16437.6</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>55428</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>3493.7</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>48083.1</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>60929.7</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>33375.7</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>13268.5</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>18401.7</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>31808</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>83350.8</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>77375.7</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>102125</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>29586.8</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>102143</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>50324</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>14054.8</v>
-      </c>
-      <c r="AB6" s="0" t="n">
-        <v>46162.6</v>
-      </c>
-      <c r="AC6" s="0" t="n">
-        <v>48572.6</v>
-      </c>
-      <c r="AD6" s="0" t="n">
-        <v>61315.6</v>
-      </c>
-      <c r="AE6" s="0" t="n">
-        <v>138543</v>
-      </c>
-      <c r="AF6" s="0" t="n">
-        <v>188931</v>
-      </c>
-      <c r="AG6" s="0" t="n">
-        <v>87261.7</v>
-      </c>
-      <c r="AH6" s="0" t="n">
-        <v>52426.2</v>
-      </c>
-      <c r="AI6" s="0" t="n">
-        <v>67001.1</v>
-      </c>
-      <c r="AJ6" s="0" t="n">
-        <v>25272.1</v>
-      </c>
-      <c r="AK6" s="0" t="n">
-        <v>139835</v>
-      </c>
-      <c r="AL6" s="0" t="n">
-        <v>104501</v>
-      </c>
-      <c r="AM6" s="0" t="n">
-        <v>17198.4</v>
-      </c>
-      <c r="AN6" s="0" t="n">
-        <v>96844.6</v>
-      </c>
-      <c r="AO6" s="0" t="n">
-        <v>313053</v>
-      </c>
-      <c r="AP6" s="0" t="n">
-        <v>934220</v>
-      </c>
-      <c r="AQ6" s="0" t="n">
-        <v>247078</v>
-      </c>
-      <c r="AR6" s="0" t="n">
-        <v>28190.5</v>
-      </c>
-      <c r="AS6" s="0" t="n">
-        <v>85433.6</v>
-      </c>
-      <c r="AT6" s="0" t="n">
-        <v>753297</v>
-      </c>
-      <c r="AU6" s="0" t="n">
-        <v>38626.2</v>
-      </c>
-      <c r="AV6" s="0" t="n">
-        <v>649914</v>
-      </c>
-      <c r="AW6" s="0" t="n">
-        <v>752706</v>
-      </c>
-      <c r="AX6" s="0" t="n">
-        <v>586500</v>
-      </c>
-      <c r="AY6" s="0" t="n">
-        <v>37346.1</v>
-      </c>
-      <c r="AZ6" s="0" t="n">
-        <v>194550</v>
-      </c>
-      <c r="BA6" s="0" t="n">
-        <v>237009</v>
-      </c>
-      <c r="BB6" s="0" t="n">
-        <v>215028</v>
-      </c>
-      <c r="BC6" s="0" t="n">
-        <v>175093</v>
-      </c>
-      <c r="BD6" s="0" t="n">
-        <v>66698.1</v>
-      </c>
-      <c r="BE6" s="0" t="n">
-        <v>47173.1</v>
-      </c>
-      <c r="BF6" s="0" t="n">
-        <v>132779</v>
-      </c>
-      <c r="BG6" s="0" t="n">
-        <v>40355.6</v>
-      </c>
-      <c r="BH6" s="0" t="n">
-        <v>255537</v>
-      </c>
-      <c r="BI6" s="0" t="n">
-        <v>343628</v>
-      </c>
-      <c r="BJ6" s="0" t="n">
-        <v>181656</v>
-      </c>
-      <c r="BK6" s="0" t="n">
-        <v>197390</v>
-      </c>
-      <c r="BL6" s="0" t="n">
-        <v>188102</v>
-      </c>
-      <c r="BM6" s="0" t="n">
-        <v>476794</v>
-      </c>
-      <c r="BN6" s="0" t="n">
-        <v>416161</v>
-      </c>
-      <c r="BO6" s="0" t="n">
-        <v>187601</v>
-      </c>
-      <c r="BP6" s="0" t="n">
-        <v>285327</v>
-      </c>
-      <c r="BQ6" s="0" t="n">
-        <v>83567.3</v>
-      </c>
-      <c r="BR6" s="0" t="n">
-        <v>112086</v>
-      </c>
-      <c r="BS6" s="0" t="n">
-        <v>395044</v>
-      </c>
-      <c r="BT6" s="0" t="n">
-        <v>239848</v>
-      </c>
-      <c r="BU6" s="0" t="n">
-        <v>52267</v>
-      </c>
-      <c r="BV6" s="0" t="n">
-        <v>100944</v>
-      </c>
-      <c r="BW6" s="0" t="n">
-        <v>111288</v>
-      </c>
-      <c r="BX6" s="0" t="n">
-        <v>189234</v>
-      </c>
-      <c r="BY6" s="0" t="n">
-        <v>219826</v>
-      </c>
-      <c r="BZ6" s="0" t="n">
-        <v>572264</v>
-      </c>
-      <c r="CA6" s="0" t="n">
-        <v>478516</v>
-      </c>
-      <c r="CB6" s="0" t="n">
-        <v>344132</v>
-      </c>
-      <c r="CC6" s="0" t="n">
-        <v>23966</v>
-      </c>
-      <c r="CD6" s="0" t="n">
-        <v>239572</v>
-      </c>
-      <c r="CE6" s="0" t="n">
-        <v>411164</v>
-      </c>
-      <c r="CF6" s="0" t="n">
-        <v>13332.6</v>
-      </c>
-      <c r="CG6" s="0" t="n">
-        <v>222449</v>
-      </c>
-      <c r="CH6" s="0" t="n">
-        <v>467975</v>
-      </c>
-      <c r="CI6" s="0" t="n">
-        <v>8782.7</v>
-      </c>
-      <c r="CJ6" s="0" t="n">
-        <v>199130</v>
-      </c>
-      <c r="CK6" s="0" t="n">
-        <v>970236</v>
-      </c>
-      <c r="CL6" s="0" t="n">
-        <v>405906</v>
-      </c>
-      <c r="CM6" s="0" t="n">
-        <v>80126.6</v>
-      </c>
-      <c r="CN6" s="0" t="n">
-        <v>824821</v>
-      </c>
-      <c r="CO6" s="0" t="n">
-        <v>233615</v>
-      </c>
-      <c r="CP6" s="0" t="n">
-        <v>659121</v>
-      </c>
-      <c r="CQ6" s="0" t="n">
-        <v>663433</v>
-      </c>
-      <c r="CR6" s="0" t="n">
-        <v>37870.2</v>
-      </c>
-      <c r="CS6" s="0" t="n">
-        <v>692296</v>
-      </c>
-      <c r="CT6" s="0" t="n">
-        <v>688502</v>
+      <c r="B6" s="1" t="n">
+        <v>188559</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>76002.2</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>185857</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>221714</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>228418</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>67113.7</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>9935.9</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>55047.2</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>231908</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>22124.9</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>17413</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>55051.9</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>3479.3</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>48678.1</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>60816.8</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>34333.8</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>13285.4</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>19001.3</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>32369.5</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>85368.5</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>79225.6</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>102793</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>31311.5</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>103805</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>51316</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>14515.1</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>47496.1</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>49727.7</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>64195.2</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>141109</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>189041</v>
+      </c>
+      <c r="AG6" s="1" t="n">
+        <v>89656.8</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>55529.5</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>68187.2</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>25625.3</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>141440</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>106317</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>18420.2</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>98475.9</v>
+      </c>
+      <c r="AO6" s="1" t="n">
+        <v>324989</v>
+      </c>
+      <c r="AP6" s="1" t="n">
+        <v>934764</v>
+      </c>
+      <c r="AQ6" s="1" t="n">
+        <v>244529</v>
+      </c>
+      <c r="AR6" s="1" t="n">
+        <v>28003.5</v>
+      </c>
+      <c r="AS6" s="1" t="n">
+        <v>85149.7</v>
+      </c>
+      <c r="AT6" s="1" t="n">
+        <v>758471</v>
+      </c>
+      <c r="AU6" s="1" t="n">
+        <v>37548</v>
+      </c>
+      <c r="AV6" s="1" t="n">
+        <v>663616</v>
+      </c>
+      <c r="AW6" s="1" t="n">
+        <v>758450</v>
+      </c>
+      <c r="AX6" s="1" t="n">
+        <v>593128</v>
+      </c>
+      <c r="AY6" s="1" t="n">
+        <v>39675.4</v>
+      </c>
+      <c r="AZ6" s="1" t="n">
+        <v>195988</v>
+      </c>
+      <c r="BA6" s="1" t="n">
+        <v>237328</v>
+      </c>
+      <c r="BB6" s="1" t="n">
+        <v>215782</v>
+      </c>
+      <c r="BC6" s="1" t="n">
+        <v>177150</v>
+      </c>
+      <c r="BD6" s="1" t="n">
+        <v>66521.4</v>
+      </c>
+      <c r="BE6" s="1" t="n">
+        <v>46778.2</v>
+      </c>
+      <c r="BF6" s="1" t="n">
+        <v>136542</v>
+      </c>
+      <c r="BG6" s="1" t="n">
+        <v>41846.3</v>
+      </c>
+      <c r="BH6" s="1" t="n">
+        <v>261712</v>
+      </c>
+      <c r="BI6" s="1" t="n">
+        <v>349966</v>
+      </c>
+      <c r="BJ6" s="1" t="n">
+        <v>184853</v>
+      </c>
+      <c r="BK6" s="1" t="n">
+        <v>195315</v>
+      </c>
+      <c r="BL6" s="1" t="n">
+        <v>195871</v>
+      </c>
+      <c r="BM6" s="1" t="n">
+        <v>477592</v>
+      </c>
+      <c r="BN6" s="1" t="n">
+        <v>420335</v>
+      </c>
+      <c r="BO6" s="1" t="n">
+        <v>194468</v>
+      </c>
+      <c r="BP6" s="1" t="n">
+        <v>294095</v>
+      </c>
+      <c r="BQ6" s="1" t="n">
+        <v>87546.3</v>
+      </c>
+      <c r="BR6" s="1" t="n">
+        <v>117645</v>
+      </c>
+      <c r="BS6" s="1" t="n">
+        <v>410132</v>
+      </c>
+      <c r="BT6" s="1" t="n">
+        <v>244356</v>
+      </c>
+      <c r="BU6" s="1" t="n">
+        <v>53340</v>
+      </c>
+      <c r="BV6" s="1" t="n">
+        <v>100817</v>
+      </c>
+      <c r="BW6" s="1" t="n">
+        <v>115366</v>
+      </c>
+      <c r="BX6" s="1" t="n">
+        <v>197830</v>
+      </c>
+      <c r="BY6" s="1" t="n">
+        <v>232802</v>
+      </c>
+      <c r="BZ6" s="1" t="n">
+        <v>577308</v>
+      </c>
+      <c r="CA6" s="1" t="n">
+        <v>483486</v>
+      </c>
+      <c r="CB6" s="1" t="n">
+        <v>341050</v>
+      </c>
+      <c r="CC6" s="1" t="n">
+        <v>22563</v>
+      </c>
+      <c r="CD6" s="1" t="n">
+        <v>243978</v>
+      </c>
+      <c r="CE6" s="1" t="n">
+        <v>416278</v>
+      </c>
+      <c r="CF6" s="1" t="n">
+        <v>14010.9</v>
+      </c>
+      <c r="CG6" s="1" t="n">
+        <v>226346</v>
+      </c>
+      <c r="CH6" s="1" t="n">
+        <v>471809</v>
+      </c>
+      <c r="CI6" s="1" t="n">
+        <v>8907.1</v>
+      </c>
+      <c r="CJ6" s="1" t="n">
+        <v>206200</v>
+      </c>
+      <c r="CK6" s="1" t="n">
+        <v>976306</v>
+      </c>
+      <c r="CL6" s="1" t="n">
+        <v>416146</v>
+      </c>
+      <c r="CM6" s="1" t="n">
+        <v>81895</v>
+      </c>
+      <c r="CN6" s="1" t="n">
+        <v>833699</v>
+      </c>
+      <c r="CO6" s="1" t="n">
+        <v>242971</v>
+      </c>
+      <c r="CP6" s="1" t="n">
+        <v>665636</v>
+      </c>
+      <c r="CQ6" s="1" t="n">
+        <v>670233</v>
+      </c>
+      <c r="CR6" s="1" t="n">
+        <v>38327.4</v>
+      </c>
+      <c r="CS6" s="1" t="n">
+        <v>699742</v>
+      </c>
+      <c r="CT6" s="1" t="n">
+        <v>712567</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>189385</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>84539.6</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>194202</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>231434</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>241446</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>73325.2</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>12020</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>63346.9</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>236712</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>24106.3</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>19161.3</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>57397.8</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>4330.3</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>47863.1</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>63909.3</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>36813.2</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>14262.7</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>21303.1</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>34863.1</v>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>84757.3</v>
-      </c>
-      <c r="V7" s="0" t="n">
-        <v>79476.3</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>102200</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>34238.9</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>106125</v>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>55097.9</v>
-      </c>
-      <c r="AA7" s="0" t="n">
-        <v>16646.5</v>
-      </c>
-      <c r="AB7" s="0" t="n">
-        <v>52144.2</v>
-      </c>
-      <c r="AC7" s="0" t="n">
-        <v>55818.9</v>
-      </c>
-      <c r="AD7" s="0" t="n">
-        <v>65654.7</v>
-      </c>
-      <c r="AE7" s="0" t="n">
-        <v>142337</v>
-      </c>
-      <c r="AF7" s="0" t="n">
+      <c r="B7" s="1" t="n">
+        <v>189504</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>88769.7</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>185464</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>234343</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>250206</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>77730.3</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>12014.7</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>64876.3</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>239086</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>25513.7</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>19275.2</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>55067.3</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>3920.8</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>48846.3</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>64046</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>38163.8</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>15260.8</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>21985</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>33456.3</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>88055.5</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>80468.4</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>102299</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>35001.3</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>108078</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>57711.1</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>16852.9</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>53037.4</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>55373.9</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>69757.8</v>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>140415</v>
+      </c>
+      <c r="AF7" s="1" t="n">
         <v>192165</v>
       </c>
-      <c r="AG7" s="0" t="n">
-        <v>97308.6</v>
-      </c>
-      <c r="AH7" s="0" t="n">
-        <v>59068.9</v>
-      </c>
-      <c r="AI7" s="0" t="n">
-        <v>76547.2</v>
-      </c>
-      <c r="AJ7" s="0" t="n">
-        <v>28941.6</v>
-      </c>
-      <c r="AK7" s="0" t="n">
-        <v>144064</v>
-      </c>
-      <c r="AL7" s="0" t="n">
-        <v>112286</v>
-      </c>
-      <c r="AM7" s="0" t="n">
-        <v>20744</v>
-      </c>
-      <c r="AN7" s="0" t="n">
-        <v>104485</v>
-      </c>
-      <c r="AO7" s="0" t="n">
-        <v>324750</v>
-      </c>
-      <c r="AP7" s="0" t="n">
-        <v>957416</v>
-      </c>
-      <c r="AQ7" s="0" t="n">
-        <v>255770</v>
-      </c>
-      <c r="AR7" s="0" t="n">
-        <v>28331.7</v>
-      </c>
-      <c r="AS7" s="0" t="n">
-        <v>86603.6</v>
-      </c>
-      <c r="AT7" s="0" t="n">
-        <v>760941</v>
-      </c>
-      <c r="AU7" s="0" t="n">
-        <v>40078.6</v>
-      </c>
-      <c r="AV7" s="0" t="n">
-        <v>661867</v>
-      </c>
-      <c r="AW7" s="0" t="n">
-        <v>753103</v>
-      </c>
-      <c r="AX7" s="0" t="n">
-        <v>597830</v>
-      </c>
-      <c r="AY7" s="0" t="n">
-        <v>37443.9</v>
-      </c>
-      <c r="AZ7" s="0" t="n">
-        <v>193848</v>
-      </c>
-      <c r="BA7" s="0" t="n">
-        <v>241765</v>
-      </c>
-      <c r="BB7" s="0" t="n">
-        <v>214999</v>
-      </c>
-      <c r="BC7" s="0" t="n">
-        <v>173296</v>
-      </c>
-      <c r="BD7" s="0" t="n">
-        <v>70803.9</v>
-      </c>
-      <c r="BE7" s="0" t="n">
-        <v>48602.2</v>
-      </c>
-      <c r="BF7" s="0" t="n">
-        <v>136742</v>
-      </c>
-      <c r="BG7" s="0" t="n">
-        <v>41433.9</v>
-      </c>
-      <c r="BH7" s="0" t="n">
-        <v>266956</v>
-      </c>
-      <c r="BI7" s="0" t="n">
-        <v>349602</v>
-      </c>
-      <c r="BJ7" s="0" t="n">
-        <v>190067</v>
-      </c>
-      <c r="BK7" s="0" t="n">
-        <v>200292</v>
-      </c>
-      <c r="BL7" s="0" t="n">
-        <v>196850</v>
-      </c>
-      <c r="BM7" s="0" t="n">
-        <v>487779</v>
-      </c>
-      <c r="BN7" s="0" t="n">
-        <v>415772</v>
-      </c>
-      <c r="BO7" s="0" t="n">
-        <v>197900</v>
-      </c>
-      <c r="BP7" s="0" t="n">
-        <v>287051</v>
-      </c>
-      <c r="BQ7" s="0" t="n">
-        <v>85674.2</v>
-      </c>
-      <c r="BR7" s="0" t="n">
-        <v>117631</v>
-      </c>
-      <c r="BS7" s="0" t="n">
-        <v>416569</v>
-      </c>
-      <c r="BT7" s="0" t="n">
-        <v>254285</v>
-      </c>
-      <c r="BU7" s="0" t="n">
-        <v>54058.7</v>
-      </c>
-      <c r="BV7" s="0" t="n">
-        <v>108038</v>
-      </c>
-      <c r="BW7" s="0" t="n">
-        <v>112878</v>
-      </c>
-      <c r="BX7" s="0" t="n">
-        <v>196931</v>
-      </c>
-      <c r="BY7" s="0" t="n">
-        <v>236283</v>
-      </c>
-      <c r="BZ7" s="0" t="n">
-        <v>571684</v>
-      </c>
-      <c r="CA7" s="0" t="n">
-        <v>490808</v>
-      </c>
-      <c r="CB7" s="0" t="n">
-        <v>352984</v>
-      </c>
-      <c r="CC7" s="0" t="n">
-        <v>23728.2</v>
-      </c>
-      <c r="CD7" s="0" t="n">
-        <v>246067</v>
-      </c>
-      <c r="CE7" s="0" t="n">
-        <v>416133</v>
-      </c>
-      <c r="CF7" s="0" t="n">
-        <v>13173.5</v>
-      </c>
-      <c r="CG7" s="0" t="n">
-        <v>227894</v>
-      </c>
-      <c r="CH7" s="0" t="n">
-        <v>466903</v>
-      </c>
-      <c r="CI7" s="0" t="n">
-        <v>8725.3</v>
-      </c>
-      <c r="CJ7" s="0" t="n">
-        <v>204577</v>
-      </c>
-      <c r="CK7" s="0" t="n">
-        <v>968717</v>
-      </c>
-      <c r="CL7" s="0" t="n">
-        <v>419798</v>
-      </c>
-      <c r="CM7" s="0" t="n">
-        <v>83713.6</v>
-      </c>
-      <c r="CN7" s="0" t="n">
-        <v>822487</v>
-      </c>
-      <c r="CO7" s="0" t="n">
-        <v>239806</v>
-      </c>
-      <c r="CP7" s="0" t="n">
-        <v>661918</v>
-      </c>
-      <c r="CQ7" s="0" t="n">
-        <v>669868</v>
-      </c>
-      <c r="CR7" s="0" t="n">
-        <v>38684.9</v>
-      </c>
-      <c r="CS7" s="0" t="n">
-        <v>700935</v>
-      </c>
-      <c r="CT7" s="0" t="n">
-        <v>699568</v>
+      <c r="AG7" s="1" t="n">
+        <v>95752.2</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>63512.1</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>77455.9</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>29023.6</v>
+      </c>
+      <c r="AK7" s="1" t="n">
+        <v>140964</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>110552</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>21424.7</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>106886</v>
+      </c>
+      <c r="AO7" s="1" t="n">
+        <v>340337</v>
+      </c>
+      <c r="AP7" s="1" t="n">
+        <v>968354</v>
+      </c>
+      <c r="AQ7" s="1" t="n">
+        <v>266262</v>
+      </c>
+      <c r="AR7" s="1" t="n">
+        <v>28782.7</v>
+      </c>
+      <c r="AS7" s="1" t="n">
+        <v>89567.9</v>
+      </c>
+      <c r="AT7" s="1" t="n">
+        <v>766616</v>
+      </c>
+      <c r="AU7" s="1" t="n">
+        <v>38308.4</v>
+      </c>
+      <c r="AV7" s="1" t="n">
+        <v>678543</v>
+      </c>
+      <c r="AW7" s="1" t="n">
+        <v>761896</v>
+      </c>
+      <c r="AX7" s="1" t="n">
+        <v>607717</v>
+      </c>
+      <c r="AY7" s="1" t="n">
+        <v>41725.6</v>
+      </c>
+      <c r="AZ7" s="1" t="n">
+        <v>197743</v>
+      </c>
+      <c r="BA7" s="1" t="n">
+        <v>244365</v>
+      </c>
+      <c r="BB7" s="1" t="n">
+        <v>220747</v>
+      </c>
+      <c r="BC7" s="1" t="n">
+        <v>179092</v>
+      </c>
+      <c r="BD7" s="1" t="n">
+        <v>72015.9</v>
+      </c>
+      <c r="BE7" s="1" t="n">
+        <v>49830.3</v>
+      </c>
+      <c r="BF7" s="1" t="n">
+        <v>146270</v>
+      </c>
+      <c r="BG7" s="1" t="n">
+        <v>43821.1</v>
+      </c>
+      <c r="BH7" s="1" t="n">
+        <v>278384</v>
+      </c>
+      <c r="BI7" s="1" t="n">
+        <v>351222</v>
+      </c>
+      <c r="BJ7" s="1" t="n">
+        <v>205354</v>
+      </c>
+      <c r="BK7" s="1" t="n">
+        <v>209296</v>
+      </c>
+      <c r="BL7" s="1" t="n">
+        <v>206468</v>
+      </c>
+      <c r="BM7" s="1" t="n">
+        <v>490616</v>
+      </c>
+      <c r="BN7" s="1" t="n">
+        <v>425032</v>
+      </c>
+      <c r="BO7" s="1" t="n">
+        <v>212397</v>
+      </c>
+      <c r="BP7" s="1" t="n">
+        <v>299992</v>
+      </c>
+      <c r="BQ7" s="1" t="n">
+        <v>91173.4</v>
+      </c>
+      <c r="BR7" s="1" t="n">
+        <v>125558</v>
+      </c>
+      <c r="BS7" s="1" t="n">
+        <v>431039</v>
+      </c>
+      <c r="BT7" s="1" t="n">
+        <v>261984</v>
+      </c>
+      <c r="BU7" s="1" t="n">
+        <v>55651.6</v>
+      </c>
+      <c r="BV7" s="1" t="n">
+        <v>108922</v>
+      </c>
+      <c r="BW7" s="1" t="n">
+        <v>120018</v>
+      </c>
+      <c r="BX7" s="1" t="n">
+        <v>208136</v>
+      </c>
+      <c r="BY7" s="1" t="n">
+        <v>250095</v>
+      </c>
+      <c r="BZ7" s="1" t="n">
+        <v>585589</v>
+      </c>
+      <c r="CA7" s="1" t="n">
+        <v>497368</v>
+      </c>
+      <c r="CB7" s="1" t="n">
+        <v>353524</v>
+      </c>
+      <c r="CC7" s="1" t="n">
+        <v>24083.2</v>
+      </c>
+      <c r="CD7" s="1" t="n">
+        <v>259824</v>
+      </c>
+      <c r="CE7" s="1" t="n">
+        <v>419814</v>
+      </c>
+      <c r="CF7" s="1" t="n">
+        <v>14442.3</v>
+      </c>
+      <c r="CG7" s="1" t="n">
+        <v>234642</v>
+      </c>
+      <c r="CH7" s="1" t="n">
+        <v>471254</v>
+      </c>
+      <c r="CI7" s="1" t="n">
+        <v>8838.4</v>
+      </c>
+      <c r="CJ7" s="1" t="n">
+        <v>216451</v>
+      </c>
+      <c r="CK7" s="1" t="n">
+        <v>985774</v>
+      </c>
+      <c r="CL7" s="1" t="n">
+        <v>450469</v>
+      </c>
+      <c r="CM7" s="1" t="n">
+        <v>83312.7</v>
+      </c>
+      <c r="CN7" s="1" t="n">
+        <v>836996</v>
+      </c>
+      <c r="CO7" s="1" t="n">
+        <v>253888</v>
+      </c>
+      <c r="CP7" s="1" t="n">
+        <v>684780</v>
+      </c>
+      <c r="CQ7" s="1" t="n">
+        <v>698024</v>
+      </c>
+      <c r="CR7" s="1" t="n">
+        <v>38427.6</v>
+      </c>
+      <c r="CS7" s="1" t="n">
+        <v>718280</v>
+      </c>
+      <c r="CT7" s="1" t="n">
+        <v>720789</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>192354</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>87799.3</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>196894</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>232431</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>242058</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>74595</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>12546.9</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>68350.8</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>237032</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>24738.8</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>20064.9</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>57656.2</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>4545.3</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>48592.5</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>63873</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>37365.1</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>14728.1</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>21578.1</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>35765.5</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>86269.5</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>81553.2</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>103615</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>34580.7</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>107505</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>56462.7</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>17263.4</v>
-      </c>
-      <c r="AB8" s="0" t="n">
-        <v>54614.4</v>
-      </c>
-      <c r="AC8" s="0" t="n">
-        <v>56806</v>
-      </c>
-      <c r="AD8" s="0" t="n">
-        <v>67707.5</v>
-      </c>
-      <c r="AE8" s="0" t="n">
-        <v>143948</v>
-      </c>
-      <c r="AF8" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>191095</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>89276.4</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>187480</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>236303</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>250745</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>83841.2</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>12877.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>66349.4</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>239319</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>27438.8</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>19680.8</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>56197.6</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>4388.1</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>49699.6</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>64194.3</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>38381.4</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>16244.9</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>22918.1</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>34325.7</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>89231.1</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>83057.2</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>103750</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>35850.1</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>109152</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>58422.6</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>18080.6</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>54764.6</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>57623.8</v>
+      </c>
+      <c r="AD8" s="1" t="n">
+        <v>71913.3</v>
+      </c>
+      <c r="AE8" s="1" t="n">
+        <v>142220</v>
+      </c>
+      <c r="AF8" s="1" t="n">
         <v>192165</v>
       </c>
-      <c r="AG8" s="0" t="n">
-        <v>97926</v>
-      </c>
-      <c r="AH8" s="0" t="n">
-        <v>60376.1</v>
-      </c>
-      <c r="AI8" s="0" t="n">
-        <v>78528.5</v>
-      </c>
-      <c r="AJ8" s="0" t="n">
-        <v>29540.1</v>
-      </c>
-      <c r="AK8" s="0" t="n">
-        <v>145416</v>
-      </c>
-      <c r="AL8" s="0" t="n">
-        <v>116298</v>
-      </c>
-      <c r="AM8" s="0" t="n">
-        <v>22373.5</v>
-      </c>
-      <c r="AN8" s="0" t="n">
-        <v>105956</v>
-      </c>
-      <c r="AO8" s="0" t="n">
-        <v>344063</v>
-      </c>
-      <c r="AP8" s="0" t="n">
-        <v>958051</v>
-      </c>
-      <c r="AQ8" s="0" t="n">
-        <v>263333</v>
-      </c>
-      <c r="AR8" s="0" t="n">
-        <v>30043.6</v>
-      </c>
-      <c r="AS8" s="0" t="n">
-        <v>90997.2</v>
-      </c>
-      <c r="AT8" s="0" t="n">
-        <v>764385</v>
-      </c>
-      <c r="AU8" s="0" t="n">
-        <v>40607.1</v>
-      </c>
-      <c r="AV8" s="0" t="n">
-        <v>666270</v>
-      </c>
-      <c r="AW8" s="0" t="n">
-        <v>759412</v>
-      </c>
-      <c r="AX8" s="0" t="n">
-        <v>607332</v>
-      </c>
-      <c r="AY8" s="0" t="n">
-        <v>40740.3</v>
-      </c>
-      <c r="AZ8" s="0" t="n">
-        <v>195542</v>
-      </c>
-      <c r="BA8" s="0" t="n">
-        <v>243658</v>
-      </c>
-      <c r="BB8" s="0" t="n">
-        <v>217202</v>
-      </c>
-      <c r="BC8" s="0" t="n">
-        <v>175981</v>
-      </c>
-      <c r="BD8" s="0" t="n">
-        <v>71976.6</v>
-      </c>
-      <c r="BE8" s="0" t="n">
-        <v>50067.4</v>
-      </c>
-      <c r="BF8" s="0" t="n">
-        <v>138456</v>
-      </c>
-      <c r="BG8" s="0" t="n">
-        <v>42928.6</v>
-      </c>
-      <c r="BH8" s="0" t="n">
-        <v>269751</v>
-      </c>
-      <c r="BI8" s="0" t="n">
-        <v>354631</v>
-      </c>
-      <c r="BJ8" s="0" t="n">
-        <v>192946</v>
-      </c>
-      <c r="BK8" s="0" t="n">
-        <v>203845</v>
-      </c>
-      <c r="BL8" s="0" t="n">
-        <v>199948</v>
-      </c>
-      <c r="BM8" s="0" t="n">
-        <v>488973</v>
-      </c>
-      <c r="BN8" s="0" t="n">
-        <v>420681</v>
-      </c>
-      <c r="BO8" s="0" t="n">
-        <v>199845</v>
-      </c>
-      <c r="BP8" s="0" t="n">
-        <v>294175</v>
-      </c>
-      <c r="BQ8" s="0" t="n">
-        <v>87221.9</v>
-      </c>
-      <c r="BR8" s="0" t="n">
-        <v>124881</v>
-      </c>
-      <c r="BS8" s="0" t="n">
-        <v>418882</v>
-      </c>
-      <c r="BT8" s="0" t="n">
-        <v>262872</v>
-      </c>
-      <c r="BU8" s="0" t="n">
-        <v>57067.7</v>
-      </c>
-      <c r="BV8" s="0" t="n">
-        <v>109537</v>
-      </c>
-      <c r="BW8" s="0" t="n">
-        <v>117498</v>
-      </c>
-      <c r="BX8" s="0" t="n">
-        <v>201787</v>
-      </c>
-      <c r="BY8" s="0" t="n">
-        <v>239566</v>
-      </c>
-      <c r="BZ8" s="0" t="n">
-        <v>578212</v>
-      </c>
-      <c r="CA8" s="0" t="n">
-        <v>495268</v>
-      </c>
-      <c r="CB8" s="0" t="n">
-        <v>357186</v>
-      </c>
-      <c r="CC8" s="0" t="n">
-        <v>25417.9</v>
-      </c>
-      <c r="CD8" s="0" t="n">
-        <v>248267</v>
-      </c>
-      <c r="CE8" s="0" t="n">
-        <v>426109</v>
-      </c>
-      <c r="CF8" s="0" t="n">
-        <v>14253.9</v>
-      </c>
-      <c r="CG8" s="0" t="n">
-        <v>230842</v>
-      </c>
-      <c r="CH8" s="0" t="n">
-        <v>467972</v>
-      </c>
-      <c r="CI8" s="0" t="n">
-        <v>9175.1</v>
-      </c>
-      <c r="CJ8" s="0" t="n">
-        <v>210241</v>
-      </c>
-      <c r="CK8" s="0" t="n">
-        <v>973769</v>
-      </c>
-      <c r="CL8" s="0" t="n">
-        <v>430372</v>
-      </c>
-      <c r="CM8" s="0" t="n">
-        <v>89413</v>
-      </c>
-      <c r="CN8" s="0" t="n">
-        <v>829927</v>
-      </c>
-      <c r="CO8" s="0" t="n">
-        <v>246579</v>
-      </c>
-      <c r="CP8" s="0" t="n">
-        <v>669910</v>
-      </c>
-      <c r="CQ8" s="0" t="n">
-        <v>673031</v>
-      </c>
-      <c r="CR8" s="0" t="n">
-        <v>41200</v>
-      </c>
-      <c r="CS8" s="0" t="n">
-        <v>706482</v>
-      </c>
-      <c r="CT8" s="0" t="n">
-        <v>709841</v>
+      <c r="AG8" s="1" t="n">
+        <v>97372.4</v>
+      </c>
+      <c r="AH8" s="1" t="n">
+        <v>64139.8</v>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>80576.2</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>29563</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>142983</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <v>113177</v>
+      </c>
+      <c r="AM8" s="1" t="n">
+        <v>22352.6</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>108309</v>
+      </c>
+      <c r="AO8" s="1" t="n">
+        <v>346942</v>
+      </c>
+      <c r="AP8" s="1" t="n">
+        <v>970511</v>
+      </c>
+      <c r="AQ8" s="1" t="n">
+        <v>277872</v>
+      </c>
+      <c r="AR8" s="1" t="n">
+        <v>29889.5</v>
+      </c>
+      <c r="AS8" s="1" t="n">
+        <v>94357</v>
+      </c>
+      <c r="AT8" s="1" t="n">
+        <v>777567</v>
+      </c>
+      <c r="AU8" s="1" t="n">
+        <v>40296.3</v>
+      </c>
+      <c r="AV8" s="1" t="n">
+        <v>683261</v>
+      </c>
+      <c r="AW8" s="1" t="n">
+        <v>770186</v>
+      </c>
+      <c r="AX8" s="1" t="n">
+        <v>616180</v>
+      </c>
+      <c r="AY8" s="1" t="n">
+        <v>43587.9</v>
+      </c>
+      <c r="AZ8" s="1" t="n">
+        <v>199994</v>
+      </c>
+      <c r="BA8" s="1" t="n">
+        <v>245277</v>
+      </c>
+      <c r="BB8" s="1" t="n">
+        <v>221957</v>
+      </c>
+      <c r="BC8" s="1" t="n">
+        <v>181720</v>
+      </c>
+      <c r="BD8" s="1" t="n">
+        <v>73090.1</v>
+      </c>
+      <c r="BE8" s="1" t="n">
+        <v>51573</v>
+      </c>
+      <c r="BF8" s="1" t="n">
+        <v>146771</v>
+      </c>
+      <c r="BG8" s="1" t="n">
+        <v>44272.4</v>
+      </c>
+      <c r="BH8" s="1" t="n">
+        <v>281802</v>
+      </c>
+      <c r="BI8" s="1" t="n">
+        <v>360354</v>
+      </c>
+      <c r="BJ8" s="1" t="n">
+        <v>207868</v>
+      </c>
+      <c r="BK8" s="1" t="n">
+        <v>212071</v>
+      </c>
+      <c r="BL8" s="1" t="n">
+        <v>208350</v>
+      </c>
+      <c r="BM8" s="1" t="n">
+        <v>492520</v>
+      </c>
+      <c r="BN8" s="1" t="n">
+        <v>428246</v>
+      </c>
+      <c r="BO8" s="1" t="n">
+        <v>215984</v>
+      </c>
+      <c r="BP8" s="1" t="n">
+        <v>306605</v>
+      </c>
+      <c r="BQ8" s="1" t="n">
+        <v>93095.3</v>
+      </c>
+      <c r="BR8" s="1" t="n">
+        <v>130963</v>
+      </c>
+      <c r="BS8" s="1" t="n">
+        <v>439057</v>
+      </c>
+      <c r="BT8" s="1" t="n">
+        <v>264525</v>
+      </c>
+      <c r="BU8" s="1" t="n">
+        <v>59963.6</v>
+      </c>
+      <c r="BV8" s="1" t="n">
+        <v>113444</v>
+      </c>
+      <c r="BW8" s="1" t="n">
+        <v>124061</v>
+      </c>
+      <c r="BX8" s="1" t="n">
+        <v>211030</v>
+      </c>
+      <c r="BY8" s="1" t="n">
+        <v>253629</v>
+      </c>
+      <c r="BZ8" s="1" t="n">
+        <v>589560</v>
+      </c>
+      <c r="CA8" s="1" t="n">
+        <v>501930</v>
+      </c>
+      <c r="CB8" s="1" t="n">
+        <v>357366</v>
+      </c>
+      <c r="CC8" s="1" t="n">
+        <v>26747.8</v>
+      </c>
+      <c r="CD8" s="1" t="n">
+        <v>260781</v>
+      </c>
+      <c r="CE8" s="1" t="n">
+        <v>427417</v>
+      </c>
+      <c r="CF8" s="1" t="n">
+        <v>14623.9</v>
+      </c>
+      <c r="CG8" s="1" t="n">
+        <v>240730</v>
+      </c>
+      <c r="CH8" s="1" t="n">
+        <v>473765</v>
+      </c>
+      <c r="CI8" s="1" t="n">
+        <v>9219.5</v>
+      </c>
+      <c r="CJ8" s="1" t="n">
+        <v>219871</v>
+      </c>
+      <c r="CK8" s="1" t="n">
+        <v>989833</v>
+      </c>
+      <c r="CL8" s="1" t="n">
+        <v>453023</v>
+      </c>
+      <c r="CM8" s="1" t="n">
+        <v>89577.3</v>
+      </c>
+      <c r="CN8" s="1" t="n">
+        <v>843466</v>
+      </c>
+      <c r="CO8" s="1" t="n">
+        <v>263853</v>
+      </c>
+      <c r="CP8" s="1" t="n">
+        <v>694226</v>
+      </c>
+      <c r="CQ8" s="1" t="n">
+        <v>709118</v>
+      </c>
+      <c r="CR8" s="1" t="n">
+        <v>40948.2</v>
+      </c>
+      <c r="CS8" s="1" t="n">
+        <v>726831</v>
+      </c>
+      <c r="CT8" s="1" t="n">
+        <v>732690</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>198101</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>91729.1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>200994</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>234453</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>244872</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>78454</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>14251.7</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>71262.1</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>237286</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>26947.6</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>21096.1</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>58206.5</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>4676.7</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>52215.1</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>64233.6</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>38384.7</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>16016.1</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>23598.8</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>37374.5</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>91493.3</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>90736.6</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>105792</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>36666.6</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>108777</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>62868</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>18446.1</v>
-      </c>
-      <c r="AB9" s="0" t="n">
-        <v>55586</v>
-      </c>
-      <c r="AC9" s="0" t="n">
-        <v>58791.8</v>
-      </c>
-      <c r="AD9" s="0" t="n">
-        <v>75088.1</v>
-      </c>
-      <c r="AE9" s="0" t="n">
-        <v>147754</v>
-      </c>
-      <c r="AF9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>196985</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>93598.7</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>192968</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>238626</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>250859</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>84714.7</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>14344.6</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>71409.9</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>241204</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>28215.5</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>20862.3</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>56308.6</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>4940.7</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>49991.6</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>64404.4</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>40201</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>16843.7</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>24004.5</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>36544.6</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>93728.5</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>88594</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>105717</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>39659.4</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>110971</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>61737.5</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>20504</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>58531.7</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>61816.9</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>78360.7</v>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>149398</v>
+      </c>
+      <c r="AF9" s="1" t="n">
         <v>192165</v>
       </c>
-      <c r="AG9" s="0" t="n">
-        <v>105205</v>
-      </c>
-      <c r="AH9" s="0" t="n">
-        <v>63255.9</v>
-      </c>
-      <c r="AI9" s="0" t="n">
-        <v>83480.7</v>
-      </c>
-      <c r="AJ9" s="0" t="n">
-        <v>32927.4</v>
-      </c>
-      <c r="AK9" s="0" t="n">
-        <v>147727</v>
-      </c>
-      <c r="AL9" s="0" t="n">
-        <v>125609</v>
-      </c>
-      <c r="AM9" s="0" t="n">
-        <v>23416.2</v>
-      </c>
-      <c r="AN9" s="0" t="n">
-        <v>115288</v>
-      </c>
-      <c r="AO9" s="0" t="n">
-        <v>361017</v>
-      </c>
-      <c r="AP9" s="0" t="n">
-        <v>966174</v>
-      </c>
-      <c r="AQ9" s="0" t="n">
-        <v>270777</v>
-      </c>
-      <c r="AR9" s="0" t="n">
-        <v>34753.8</v>
-      </c>
-      <c r="AS9" s="0" t="n">
-        <v>95097.5</v>
-      </c>
-      <c r="AT9" s="0" t="n">
-        <v>783204</v>
-      </c>
-      <c r="AU9" s="0" t="n">
-        <v>44104.5</v>
-      </c>
-      <c r="AV9" s="0" t="n">
-        <v>696374</v>
-      </c>
-      <c r="AW9" s="0" t="n">
-        <v>773461</v>
-      </c>
-      <c r="AX9" s="0" t="n">
-        <v>633284</v>
-      </c>
-      <c r="AY9" s="0" t="n">
-        <v>43376.3</v>
-      </c>
-      <c r="AZ9" s="0" t="n">
-        <v>198105</v>
-      </c>
-      <c r="BA9" s="0" t="n">
-        <v>245946</v>
-      </c>
-      <c r="BB9" s="0" t="n">
-        <v>223642</v>
-      </c>
-      <c r="BC9" s="0" t="n">
-        <v>181043</v>
-      </c>
-      <c r="BD9" s="0" t="n">
-        <v>74813.1</v>
-      </c>
-      <c r="BE9" s="0" t="n">
-        <v>52421.3</v>
-      </c>
-      <c r="BF9" s="0" t="n">
-        <v>140673</v>
-      </c>
-      <c r="BG9" s="0" t="n">
-        <v>43844</v>
-      </c>
-      <c r="BH9" s="0" t="n">
-        <v>277984</v>
-      </c>
-      <c r="BI9" s="0" t="n">
-        <v>361308</v>
-      </c>
-      <c r="BJ9" s="0" t="n">
-        <v>197829</v>
-      </c>
-      <c r="BK9" s="0" t="n">
-        <v>211001</v>
-      </c>
-      <c r="BL9" s="0" t="n">
-        <v>207815</v>
-      </c>
-      <c r="BM9" s="0" t="n">
-        <v>491545</v>
-      </c>
-      <c r="BN9" s="0" t="n">
-        <v>424933</v>
-      </c>
-      <c r="BO9" s="0" t="n">
-        <v>208480</v>
-      </c>
-      <c r="BP9" s="0" t="n">
-        <v>307078</v>
-      </c>
-      <c r="BQ9" s="0" t="n">
-        <v>89197.2</v>
-      </c>
-      <c r="BR9" s="0" t="n">
-        <v>128583</v>
-      </c>
-      <c r="BS9" s="0" t="n">
-        <v>429947</v>
-      </c>
-      <c r="BT9" s="0" t="n">
-        <v>271654</v>
-      </c>
-      <c r="BU9" s="0" t="n">
-        <v>59134.5</v>
-      </c>
-      <c r="BV9" s="0" t="n">
-        <v>114545</v>
-      </c>
-      <c r="BW9" s="0" t="n">
-        <v>123221</v>
-      </c>
-      <c r="BX9" s="0" t="n">
-        <v>209826</v>
-      </c>
-      <c r="BY9" s="0" t="n">
-        <v>250410</v>
-      </c>
-      <c r="BZ9" s="0" t="n">
-        <v>596448</v>
-      </c>
-      <c r="CA9" s="0" t="n">
-        <v>516841</v>
-      </c>
-      <c r="CB9" s="0" t="n">
-        <v>364768</v>
-      </c>
-      <c r="CC9" s="0" t="n">
-        <v>25835</v>
-      </c>
-      <c r="CD9" s="0" t="n">
-        <v>252346</v>
-      </c>
-      <c r="CE9" s="0" t="n">
-        <v>430379</v>
-      </c>
-      <c r="CF9" s="0" t="n">
-        <v>15026.9</v>
-      </c>
-      <c r="CG9" s="0" t="n">
-        <v>233647</v>
-      </c>
-      <c r="CH9" s="0" t="n">
-        <v>471890</v>
-      </c>
-      <c r="CI9" s="0" t="n">
-        <v>9897</v>
-      </c>
-      <c r="CJ9" s="0" t="n">
-        <v>213946</v>
-      </c>
-      <c r="CK9" s="0" t="n">
-        <v>980593</v>
-      </c>
-      <c r="CL9" s="0" t="n">
-        <v>436775</v>
-      </c>
-      <c r="CM9" s="0" t="n">
-        <v>91641.5</v>
-      </c>
-      <c r="CN9" s="0" t="n">
-        <v>845894</v>
-      </c>
-      <c r="CO9" s="0" t="n">
-        <v>254165</v>
-      </c>
-      <c r="CP9" s="0" t="n">
-        <v>695314</v>
-      </c>
-      <c r="CQ9" s="0" t="n">
-        <v>697376</v>
-      </c>
-      <c r="CR9" s="0" t="n">
-        <v>43516.2</v>
-      </c>
-      <c r="CS9" s="0" t="n">
-        <v>716640</v>
-      </c>
-      <c r="CT9" s="0" t="n">
-        <v>724046</v>
+      <c r="AG9" s="1" t="n">
+        <v>107831</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>70450.9</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>82788</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>32092.3</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>146115</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>122069</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>23902.1</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>116907</v>
+      </c>
+      <c r="AO9" s="1" t="n">
+        <v>366946</v>
+      </c>
+      <c r="AP9" s="1" t="n">
+        <v>977927</v>
+      </c>
+      <c r="AQ9" s="1" t="n">
+        <v>289523</v>
+      </c>
+      <c r="AR9" s="1" t="n">
+        <v>33977.8</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>99409.2</v>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>788789</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>44388.1</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>699941</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>775651</v>
+      </c>
+      <c r="AX9" s="1" t="n">
+        <v>641390</v>
+      </c>
+      <c r="AY9" s="1" t="n">
+        <v>44035.1</v>
+      </c>
+      <c r="AZ9" s="1" t="n">
+        <v>202389</v>
+      </c>
+      <c r="BA9" s="1" t="n">
+        <v>245365</v>
+      </c>
+      <c r="BB9" s="1" t="n">
+        <v>221852</v>
+      </c>
+      <c r="BC9" s="1" t="n">
+        <v>185882</v>
+      </c>
+      <c r="BD9" s="1" t="n">
+        <v>76477.2</v>
+      </c>
+      <c r="BE9" s="1" t="n">
+        <v>53325.4</v>
+      </c>
+      <c r="BF9" s="1" t="n">
+        <v>150915</v>
+      </c>
+      <c r="BG9" s="1" t="n">
+        <v>46745.3</v>
+      </c>
+      <c r="BH9" s="1" t="n">
+        <v>287687</v>
+      </c>
+      <c r="BI9" s="1" t="n">
+        <v>367703</v>
+      </c>
+      <c r="BJ9" s="1" t="n">
+        <v>210095</v>
+      </c>
+      <c r="BK9" s="1" t="n">
+        <v>224984</v>
+      </c>
+      <c r="BL9" s="1" t="n">
+        <v>217794</v>
+      </c>
+      <c r="BM9" s="1" t="n">
+        <v>493312</v>
+      </c>
+      <c r="BN9" s="1" t="n">
+        <v>427578</v>
+      </c>
+      <c r="BO9" s="1" t="n">
+        <v>221275</v>
+      </c>
+      <c r="BP9" s="1" t="n">
+        <v>319485</v>
+      </c>
+      <c r="BQ9" s="1" t="n">
+        <v>101570</v>
+      </c>
+      <c r="BR9" s="1" t="n">
+        <v>138079</v>
+      </c>
+      <c r="BS9" s="1" t="n">
+        <v>457902</v>
+      </c>
+      <c r="BT9" s="1" t="n">
+        <v>273633</v>
+      </c>
+      <c r="BU9" s="1" t="n">
+        <v>63126.4</v>
+      </c>
+      <c r="BV9" s="1" t="n">
+        <v>117482</v>
+      </c>
+      <c r="BW9" s="1" t="n">
+        <v>131178</v>
+      </c>
+      <c r="BX9" s="1" t="n">
+        <v>225368</v>
+      </c>
+      <c r="BY9" s="1" t="n">
+        <v>258870</v>
+      </c>
+      <c r="BZ9" s="1" t="n">
+        <v>603283</v>
+      </c>
+      <c r="CA9" s="1" t="n">
+        <v>517514</v>
+      </c>
+      <c r="CB9" s="1" t="n">
+        <v>370290</v>
+      </c>
+      <c r="CC9" s="1" t="n">
+        <v>27716.6</v>
+      </c>
+      <c r="CD9" s="1" t="n">
+        <v>265319</v>
+      </c>
+      <c r="CE9" s="1" t="n">
+        <v>432560</v>
+      </c>
+      <c r="CF9" s="1" t="n">
+        <v>15748.4</v>
+      </c>
+      <c r="CG9" s="1" t="n">
+        <v>247908</v>
+      </c>
+      <c r="CH9" s="1" t="n">
+        <v>475333</v>
+      </c>
+      <c r="CI9" s="1" t="n">
+        <v>9960.6</v>
+      </c>
+      <c r="CJ9" s="1" t="n">
+        <v>224314</v>
+      </c>
+      <c r="CK9" s="1" t="n">
+        <v>993780</v>
+      </c>
+      <c r="CL9" s="1" t="n">
+        <v>466736</v>
+      </c>
+      <c r="CM9" s="1" t="n">
+        <v>94544.1</v>
+      </c>
+      <c r="CN9" s="1" t="n">
+        <v>862411</v>
+      </c>
+      <c r="CO9" s="1" t="n">
+        <v>272784</v>
+      </c>
+      <c r="CP9" s="1" t="n">
+        <v>706885</v>
+      </c>
+      <c r="CQ9" s="1" t="n">
+        <v>720416</v>
+      </c>
+      <c r="CR9" s="1" t="n">
+        <v>43378.6</v>
+      </c>
+      <c r="CS9" s="1" t="n">
+        <v>732270</v>
+      </c>
+      <c r="CT9" s="1" t="n">
+        <v>755293</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>200546</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>92545.4</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>203786</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>235501</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>245368</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>83676.7</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>15174.9</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>72879.9</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>237436</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>27406.5</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>21497.2</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>58379.1</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>4706.8</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>52680.3</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>64276.7</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>39620.7</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>16752.1</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>24406.4</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>38230.1</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>92479.1</v>
-      </c>
-      <c r="V10" s="0" t="n">
-        <v>90946.6</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>107881</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>39742.8</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>109583</v>
-      </c>
-      <c r="Z10" s="0" t="n">
-        <v>63077.6</v>
-      </c>
-      <c r="AA10" s="0" t="n">
-        <v>18999.6</v>
-      </c>
-      <c r="AB10" s="0" t="n">
-        <v>56589.2</v>
-      </c>
-      <c r="AC10" s="0" t="n">
-        <v>60365</v>
-      </c>
-      <c r="AD10" s="0" t="n">
-        <v>77303</v>
-      </c>
-      <c r="AE10" s="0" t="n">
-        <v>150634</v>
-      </c>
-      <c r="AF10" s="0" t="n">
+      <c r="B10" s="1" t="n">
+        <v>197674</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>100026</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>196292</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>239112</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>251896</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>87457.2</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>15960.3</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>80005</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>241681</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>28741.5</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>22204.1</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>57010.5</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>5233.5</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>50591.1</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>64390.1</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>41143.4</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>17971.4</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>24578.4</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>38117.4</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>97788.8</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>90177.7</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>106474</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>41010.2</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>111067</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <v>64523.3</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>21384.9</v>
+      </c>
+      <c r="AB10" s="1" t="n">
+        <v>60449.3</v>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>63787.4</v>
+      </c>
+      <c r="AD10" s="1" t="n">
+        <v>81414.3</v>
+      </c>
+      <c r="AE10" s="1" t="n">
+        <v>150780</v>
+      </c>
+      <c r="AF10" s="1" t="n">
         <v>192165</v>
       </c>
-      <c r="AG10" s="0" t="n">
-        <v>107801</v>
-      </c>
-      <c r="AH10" s="0" t="n">
-        <v>67348.8</v>
-      </c>
-      <c r="AI10" s="0" t="n">
-        <v>86193.2</v>
-      </c>
-      <c r="AJ10" s="0" t="n">
-        <v>33682.9</v>
-      </c>
-      <c r="AK10" s="0" t="n">
-        <v>149638</v>
-      </c>
-      <c r="AL10" s="0" t="n">
-        <v>128807</v>
-      </c>
-      <c r="AM10" s="0" t="n">
-        <v>24846.9</v>
-      </c>
-      <c r="AN10" s="0" t="n">
-        <v>117642</v>
-      </c>
-      <c r="AO10" s="0" t="n">
-        <v>366259</v>
-      </c>
-      <c r="AP10" s="0" t="n">
-        <v>969517</v>
-      </c>
-      <c r="AQ10" s="0" t="n">
-        <v>276664</v>
-      </c>
-      <c r="AR10" s="0" t="n">
-        <v>37123.4</v>
-      </c>
-      <c r="AS10" s="0" t="n">
-        <v>97152.3</v>
-      </c>
-      <c r="AT10" s="0" t="n">
-        <v>787331</v>
-      </c>
-      <c r="AU10" s="0" t="n">
-        <v>45834.6</v>
-      </c>
-      <c r="AV10" s="0" t="n">
-        <v>705697</v>
-      </c>
-      <c r="AW10" s="0" t="n">
-        <v>783909</v>
-      </c>
-      <c r="AX10" s="0" t="n">
-        <v>634761</v>
-      </c>
-      <c r="AY10" s="0" t="n">
-        <v>43755.5</v>
-      </c>
-      <c r="AZ10" s="0" t="n">
-        <v>199210</v>
-      </c>
-      <c r="BA10" s="0" t="n">
-        <v>246859</v>
-      </c>
-      <c r="BB10" s="0" t="n">
-        <v>224022</v>
-      </c>
-      <c r="BC10" s="0" t="n">
-        <v>181956</v>
-      </c>
-      <c r="BD10" s="0" t="n">
-        <v>78942.7</v>
-      </c>
-      <c r="BE10" s="0" t="n">
-        <v>53917</v>
-      </c>
-      <c r="BF10" s="0" t="n">
-        <v>145968</v>
-      </c>
-      <c r="BG10" s="0" t="n">
-        <v>45249.4</v>
-      </c>
-      <c r="BH10" s="0" t="n">
-        <v>283472</v>
-      </c>
-      <c r="BI10" s="0" t="n">
-        <v>365102</v>
-      </c>
-      <c r="BJ10" s="0" t="n">
-        <v>210392</v>
-      </c>
-      <c r="BK10" s="0" t="n">
-        <v>213559</v>
-      </c>
-      <c r="BL10" s="0" t="n">
-        <v>220927</v>
-      </c>
-      <c r="BM10" s="0" t="n">
-        <v>491717</v>
-      </c>
-      <c r="BN10" s="0" t="n">
-        <v>427228</v>
-      </c>
-      <c r="BO10" s="0" t="n">
-        <v>213042</v>
-      </c>
-      <c r="BP10" s="0" t="n">
-        <v>316711</v>
-      </c>
-      <c r="BQ10" s="0" t="n">
-        <v>92934.1</v>
-      </c>
-      <c r="BR10" s="0" t="n">
-        <v>129650</v>
-      </c>
-      <c r="BS10" s="0" t="n">
-        <v>442531</v>
-      </c>
-      <c r="BT10" s="0" t="n">
-        <v>277705</v>
-      </c>
-      <c r="BU10" s="0" t="n">
-        <v>60415.9</v>
-      </c>
-      <c r="BV10" s="0" t="n">
-        <v>117658</v>
-      </c>
-      <c r="BW10" s="0" t="n">
-        <v>127760</v>
-      </c>
-      <c r="BX10" s="0" t="n">
-        <v>218177</v>
-      </c>
-      <c r="BY10" s="0" t="n">
-        <v>251683</v>
-      </c>
-      <c r="BZ10" s="0" t="n">
-        <v>599295</v>
-      </c>
-      <c r="CA10" s="0" t="n">
-        <v>522515</v>
-      </c>
-      <c r="CB10" s="0" t="n">
-        <v>369630</v>
-      </c>
-      <c r="CC10" s="0" t="n">
-        <v>26776.6</v>
-      </c>
-      <c r="CD10" s="0" t="n">
-        <v>258782</v>
-      </c>
-      <c r="CE10" s="0" t="n">
-        <v>434477</v>
-      </c>
-      <c r="CF10" s="0" t="n">
-        <v>15178.8</v>
-      </c>
-      <c r="CG10" s="0" t="n">
-        <v>236948</v>
-      </c>
-      <c r="CH10" s="0" t="n">
-        <v>473150</v>
-      </c>
-      <c r="CI10" s="0" t="n">
-        <v>10163.4</v>
-      </c>
-      <c r="CJ10" s="0" t="n">
-        <v>214970</v>
-      </c>
-      <c r="CK10" s="0" t="n">
-        <v>982021</v>
-      </c>
-      <c r="CL10" s="0" t="n">
-        <v>443159</v>
-      </c>
-      <c r="CM10" s="0" t="n">
-        <v>92967.9</v>
-      </c>
-      <c r="CN10" s="0" t="n">
-        <v>850196</v>
-      </c>
-      <c r="CO10" s="0" t="n">
-        <v>258393</v>
-      </c>
-      <c r="CP10" s="0" t="n">
-        <v>699643</v>
-      </c>
-      <c r="CQ10" s="0" t="n">
-        <v>711943</v>
-      </c>
-      <c r="CR10" s="0" t="n">
-        <v>44196.7</v>
-      </c>
-      <c r="CS10" s="0" t="n">
-        <v>729950</v>
-      </c>
-      <c r="CT10" s="0" t="n">
-        <v>732662</v>
+      <c r="AG10" s="1" t="n">
+        <v>110219</v>
+      </c>
+      <c r="AH10" s="1" t="n">
+        <v>74756.3</v>
+      </c>
+      <c r="AI10" s="1" t="n">
+        <v>84963</v>
+      </c>
+      <c r="AJ10" s="1" t="n">
+        <v>34962.1</v>
+      </c>
+      <c r="AK10" s="1" t="n">
+        <v>146943</v>
+      </c>
+      <c r="AL10" s="1" t="n">
+        <v>128131</v>
+      </c>
+      <c r="AM10" s="1" t="n">
+        <v>25482.7</v>
+      </c>
+      <c r="AN10" s="1" t="n">
+        <v>124840</v>
+      </c>
+      <c r="AO10" s="1" t="n">
+        <v>373254</v>
+      </c>
+      <c r="AP10" s="1" t="n">
+        <v>981166</v>
+      </c>
+      <c r="AQ10" s="1" t="n">
+        <v>299896</v>
+      </c>
+      <c r="AR10" s="1" t="n">
+        <v>36294.7</v>
+      </c>
+      <c r="AS10" s="1" t="n">
+        <v>103356</v>
+      </c>
+      <c r="AT10" s="1" t="n">
+        <v>800286</v>
+      </c>
+      <c r="AU10" s="1" t="n">
+        <v>46496.9</v>
+      </c>
+      <c r="AV10" s="1" t="n">
+        <v>710748</v>
+      </c>
+      <c r="AW10" s="1" t="n">
+        <v>776804</v>
+      </c>
+      <c r="AX10" s="1" t="n">
+        <v>658868</v>
+      </c>
+      <c r="AY10" s="1" t="n">
+        <v>46146.8</v>
+      </c>
+      <c r="AZ10" s="1" t="n">
+        <v>203042</v>
+      </c>
+      <c r="BA10" s="1" t="n">
+        <v>245596</v>
+      </c>
+      <c r="BB10" s="1" t="n">
+        <v>222432</v>
+      </c>
+      <c r="BC10" s="1" t="n">
+        <v>187332</v>
+      </c>
+      <c r="BD10" s="1" t="n">
+        <v>78415.9</v>
+      </c>
+      <c r="BE10" s="1" t="n">
+        <v>55209.4</v>
+      </c>
+      <c r="BF10" s="1" t="n">
+        <v>153143</v>
+      </c>
+      <c r="BG10" s="1" t="n">
+        <v>48601.6</v>
+      </c>
+      <c r="BH10" s="1" t="n">
+        <v>293008</v>
+      </c>
+      <c r="BI10" s="1" t="n">
+        <v>371806</v>
+      </c>
+      <c r="BJ10" s="1" t="n">
+        <v>214831</v>
+      </c>
+      <c r="BK10" s="1" t="n">
+        <v>229560</v>
+      </c>
+      <c r="BL10" s="1" t="n">
+        <v>222738</v>
+      </c>
+      <c r="BM10" s="1" t="n">
+        <v>495348</v>
+      </c>
+      <c r="BN10" s="1" t="n">
+        <v>428963</v>
+      </c>
+      <c r="BO10" s="1" t="n">
+        <v>223542</v>
+      </c>
+      <c r="BP10" s="1" t="n">
+        <v>328160</v>
+      </c>
+      <c r="BQ10" s="1" t="n">
+        <v>104270</v>
+      </c>
+      <c r="BR10" s="1" t="n">
+        <v>143764</v>
+      </c>
+      <c r="BS10" s="1" t="n">
+        <v>461985</v>
+      </c>
+      <c r="BT10" s="1" t="n">
+        <v>282596</v>
+      </c>
+      <c r="BU10" s="1" t="n">
+        <v>64448.8</v>
+      </c>
+      <c r="BV10" s="1" t="n">
+        <v>119369</v>
+      </c>
+      <c r="BW10" s="1" t="n">
+        <v>137906</v>
+      </c>
+      <c r="BX10" s="1" t="n">
+        <v>231986</v>
+      </c>
+      <c r="BY10" s="1" t="n">
+        <v>268874</v>
+      </c>
+      <c r="BZ10" s="1" t="n">
+        <v>607670</v>
+      </c>
+      <c r="CA10" s="1" t="n">
+        <v>526182</v>
+      </c>
+      <c r="CB10" s="1" t="n">
+        <v>376221</v>
+      </c>
+      <c r="CC10" s="1" t="n">
+        <v>28430.1</v>
+      </c>
+      <c r="CD10" s="1" t="n">
+        <v>267267</v>
+      </c>
+      <c r="CE10" s="1" t="n">
+        <v>434803</v>
+      </c>
+      <c r="CF10" s="1" t="n">
+        <v>16469.6</v>
+      </c>
+      <c r="CG10" s="1" t="n">
+        <v>251967</v>
+      </c>
+      <c r="CH10" s="1" t="n">
+        <v>478074</v>
+      </c>
+      <c r="CI10" s="1" t="n">
+        <v>10829.8</v>
+      </c>
+      <c r="CJ10" s="1" t="n">
+        <v>230900</v>
+      </c>
+      <c r="CK10" s="1" t="n">
+        <v>997308</v>
+      </c>
+      <c r="CL10" s="1" t="n">
+        <v>473316</v>
+      </c>
+      <c r="CM10" s="1" t="n">
+        <v>98634.7</v>
+      </c>
+      <c r="CN10" s="1" t="n">
+        <v>879062</v>
+      </c>
+      <c r="CO10" s="1" t="n">
+        <v>278894</v>
+      </c>
+      <c r="CP10" s="1" t="n">
+        <v>714804</v>
+      </c>
+      <c r="CQ10" s="1" t="n">
+        <v>730207</v>
+      </c>
+      <c r="CR10" s="1" t="n">
+        <v>45448.2</v>
+      </c>
+      <c r="CS10" s="1" t="n">
+        <v>740388</v>
+      </c>
+      <c r="CT10" s="1" t="n">
+        <v>761152</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>210854</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>92857</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>207657</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>240035</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>245290</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>84824.7</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>15585.1</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>72879.9</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>237484</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>27959.1</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>21513.1</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>58989.3</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>4806.3</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>53517.8</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>64579.8</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>39623.1</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>16821.1</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>24406.4</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>38566.2</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>95150.5</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>91795.9</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>108874</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>39914.4</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>110746</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>64502.9</v>
-      </c>
-      <c r="AA11" s="0" t="n">
-        <v>19483.8</v>
-      </c>
-      <c r="AB11" s="0" t="n">
-        <v>57286</v>
-      </c>
-      <c r="AC11" s="0" t="n">
-        <v>61410.7</v>
-      </c>
-      <c r="AD11" s="0" t="n">
-        <v>78554.2</v>
-      </c>
-      <c r="AE11" s="0" t="n">
-        <v>154824</v>
-      </c>
-      <c r="AF11" s="0" t="n">
+      <c r="B11" s="1" t="n">
+        <v>204223</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>100040</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>207012</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>242316</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>251837</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>87814.3</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>16215</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>80025.6</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>241782</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>29305.7</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>22263.9</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>58476.3</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>5362.9</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>51789.3</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>64647.6</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>41848.2</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>18149.1</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>24902.3</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>39386.7</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>99104.1</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>91849.4</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>107030</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>41519.8</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>111920</v>
+      </c>
+      <c r="Z11" s="1" t="n">
+        <v>65176.4</v>
+      </c>
+      <c r="AA11" s="1" t="n">
+        <v>21676.4</v>
+      </c>
+      <c r="AB11" s="1" t="n">
+        <v>62080.8</v>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>64399.9</v>
+      </c>
+      <c r="AD11" s="1" t="n">
+        <v>81641.3</v>
+      </c>
+      <c r="AE11" s="1" t="n">
+        <v>152439</v>
+      </c>
+      <c r="AF11" s="1" t="n">
         <v>192165</v>
       </c>
-      <c r="AG11" s="0" t="n">
-        <v>111546</v>
-      </c>
-      <c r="AH11" s="0" t="n">
-        <v>70198.3</v>
-      </c>
-      <c r="AI11" s="0" t="n">
-        <v>86389.3</v>
-      </c>
-      <c r="AJ11" s="0" t="n">
-        <v>33999.9</v>
-      </c>
-      <c r="AK11" s="0" t="n">
-        <v>154833</v>
-      </c>
-      <c r="AL11" s="0" t="n">
-        <v>131278</v>
-      </c>
-      <c r="AM11" s="0" t="n">
-        <v>25079.6</v>
-      </c>
-      <c r="AN11" s="0" t="n">
-        <v>117834</v>
-      </c>
-      <c r="AO11" s="0" t="n">
-        <v>375775</v>
-      </c>
-      <c r="AP11" s="0" t="n">
-        <v>969439</v>
-      </c>
-      <c r="AQ11" s="0" t="n">
-        <v>277560</v>
-      </c>
-      <c r="AR11" s="0" t="n">
-        <v>37123.4</v>
-      </c>
-      <c r="AS11" s="0" t="n">
-        <v>100768</v>
-      </c>
-      <c r="AT11" s="0" t="n">
-        <v>803202</v>
-      </c>
-      <c r="AU11" s="0" t="n">
-        <v>47484.2</v>
-      </c>
-      <c r="AV11" s="0" t="n">
-        <v>716374</v>
-      </c>
-      <c r="AW11" s="0" t="n">
-        <v>801166</v>
-      </c>
-      <c r="AX11" s="0" t="n">
-        <v>649870</v>
-      </c>
-      <c r="AY11" s="0" t="n">
-        <v>43635.7</v>
-      </c>
-      <c r="AZ11" s="0" t="n">
-        <v>203533</v>
-      </c>
-      <c r="BA11" s="0" t="n">
-        <v>246847</v>
-      </c>
-      <c r="BB11" s="0" t="n">
-        <v>223998</v>
-      </c>
-      <c r="BC11" s="0" t="n">
-        <v>187139</v>
-      </c>
-      <c r="BD11" s="0" t="n">
-        <v>79126.2</v>
-      </c>
-      <c r="BE11" s="0" t="n">
-        <v>55199.9</v>
-      </c>
-      <c r="BF11" s="0" t="n">
-        <v>148020</v>
-      </c>
-      <c r="BG11" s="0" t="n">
-        <v>47098.2</v>
-      </c>
-      <c r="BH11" s="0" t="n">
-        <v>288178</v>
-      </c>
-      <c r="BI11" s="0" t="n">
-        <v>374143</v>
-      </c>
-      <c r="BJ11" s="0" t="n">
-        <v>211268</v>
-      </c>
-      <c r="BK11" s="0" t="n">
-        <v>219144</v>
-      </c>
-      <c r="BL11" s="0" t="n">
-        <v>225577</v>
-      </c>
-      <c r="BM11" s="0" t="n">
-        <v>493531</v>
-      </c>
-      <c r="BN11" s="0" t="n">
-        <v>433058</v>
-      </c>
-      <c r="BO11" s="0" t="n">
-        <v>215616</v>
-      </c>
-      <c r="BP11" s="0" t="n">
-        <v>320777</v>
-      </c>
-      <c r="BQ11" s="0" t="n">
-        <v>97004.9</v>
-      </c>
-      <c r="BR11" s="0" t="n">
-        <v>136401</v>
-      </c>
-      <c r="BS11" s="0" t="n">
-        <v>453490</v>
-      </c>
-      <c r="BT11" s="0" t="n">
-        <v>285707</v>
-      </c>
-      <c r="BU11" s="0" t="n">
-        <v>61995.1</v>
-      </c>
-      <c r="BV11" s="0" t="n">
-        <v>122033</v>
-      </c>
-      <c r="BW11" s="0" t="n">
-        <v>132690</v>
-      </c>
-      <c r="BX11" s="0" t="n">
-        <v>221489</v>
-      </c>
-      <c r="BY11" s="0" t="n">
-        <v>255260</v>
-      </c>
-      <c r="BZ11" s="0" t="n">
-        <v>614888</v>
-      </c>
-      <c r="CA11" s="0" t="n">
-        <v>533870</v>
-      </c>
-      <c r="CB11" s="0" t="n">
-        <v>373107</v>
-      </c>
-      <c r="CC11" s="0" t="n">
-        <v>27661.1</v>
-      </c>
-      <c r="CD11" s="0" t="n">
-        <v>263032</v>
-      </c>
-      <c r="CE11" s="0" t="n">
-        <v>438937</v>
-      </c>
-      <c r="CF11" s="0" t="n">
-        <v>15432.9</v>
-      </c>
-      <c r="CG11" s="0" t="n">
-        <v>240059</v>
-      </c>
-      <c r="CH11" s="0" t="n">
-        <v>475638</v>
-      </c>
-      <c r="CI11" s="0" t="n">
-        <v>10614.5</v>
-      </c>
-      <c r="CJ11" s="0" t="n">
-        <v>219563</v>
-      </c>
-      <c r="CK11" s="0" t="n">
-        <v>999853</v>
-      </c>
-      <c r="CL11" s="0" t="n">
-        <v>458934</v>
-      </c>
-      <c r="CM11" s="0" t="n">
-        <v>94303.4</v>
-      </c>
-      <c r="CN11" s="0" t="n">
-        <v>864070</v>
-      </c>
-      <c r="CO11" s="0" t="n">
-        <v>262421</v>
-      </c>
-      <c r="CP11" s="0" t="n">
-        <v>712752</v>
-      </c>
-      <c r="CQ11" s="0" t="n">
-        <v>713775</v>
-      </c>
-      <c r="CR11" s="0" t="n">
-        <v>45324.3</v>
-      </c>
-      <c r="CS11" s="0" t="n">
-        <v>737190</v>
-      </c>
-      <c r="CT11" s="0" t="n">
-        <v>753707</v>
+      <c r="AG11" s="1" t="n">
+        <v>113196</v>
+      </c>
+      <c r="AH11" s="1" t="n">
+        <v>75782.1</v>
+      </c>
+      <c r="AI11" s="1" t="n">
+        <v>85675.1</v>
+      </c>
+      <c r="AJ11" s="1" t="n">
+        <v>35732.9</v>
+      </c>
+      <c r="AK11" s="1" t="n">
+        <v>149924</v>
+      </c>
+      <c r="AL11" s="1" t="n">
+        <v>130516</v>
+      </c>
+      <c r="AM11" s="1" t="n">
+        <v>25917.7</v>
+      </c>
+      <c r="AN11" s="1" t="n">
+        <v>125338</v>
+      </c>
+      <c r="AO11" s="1" t="n">
+        <v>382757</v>
+      </c>
+      <c r="AP11" s="1" t="n">
+        <v>984776</v>
+      </c>
+      <c r="AQ11" s="1" t="n">
+        <v>302015</v>
+      </c>
+      <c r="AR11" s="1" t="n">
+        <v>38131.2</v>
+      </c>
+      <c r="AS11" s="1" t="n">
+        <v>105305</v>
+      </c>
+      <c r="AT11" s="1" t="n">
+        <v>809010</v>
+      </c>
+      <c r="AU11" s="1" t="n">
+        <v>47556.6</v>
+      </c>
+      <c r="AV11" s="1" t="n">
+        <v>732658</v>
+      </c>
+      <c r="AW11" s="1" t="n">
+        <v>794725</v>
+      </c>
+      <c r="AX11" s="1" t="n">
+        <v>665937</v>
+      </c>
+      <c r="AY11" s="1" t="n">
+        <v>46541.6</v>
+      </c>
+      <c r="AZ11" s="1" t="n">
+        <v>206184</v>
+      </c>
+      <c r="BA11" s="1" t="n">
+        <v>246062</v>
+      </c>
+      <c r="BB11" s="1" t="n">
+        <v>222707</v>
+      </c>
+      <c r="BC11" s="1" t="n">
+        <v>192400</v>
+      </c>
+      <c r="BD11" s="1" t="n">
+        <v>80180.1</v>
+      </c>
+      <c r="BE11" s="1" t="n">
+        <v>56094.2</v>
+      </c>
+      <c r="BF11" s="1" t="n">
+        <v>153841</v>
+      </c>
+      <c r="BG11" s="1" t="n">
+        <v>49436.5</v>
+      </c>
+      <c r="BH11" s="1" t="n">
+        <v>297543</v>
+      </c>
+      <c r="BI11" s="1" t="n">
+        <v>375591</v>
+      </c>
+      <c r="BJ11" s="1" t="n">
+        <v>216154</v>
+      </c>
+      <c r="BK11" s="1" t="n">
+        <v>237037</v>
+      </c>
+      <c r="BL11" s="1" t="n">
+        <v>225872</v>
+      </c>
+      <c r="BM11" s="1" t="n">
+        <v>495600</v>
+      </c>
+      <c r="BN11" s="1" t="n">
+        <v>431646</v>
+      </c>
+      <c r="BO11" s="1" t="n">
+        <v>232895</v>
+      </c>
+      <c r="BP11" s="1" t="n">
+        <v>331686</v>
+      </c>
+      <c r="BQ11" s="1" t="n">
+        <v>105825</v>
+      </c>
+      <c r="BR11" s="1" t="n">
+        <v>144770</v>
+      </c>
+      <c r="BS11" s="1" t="n">
+        <v>468119</v>
+      </c>
+      <c r="BT11" s="1" t="n">
+        <v>287070</v>
+      </c>
+      <c r="BU11" s="1" t="n">
+        <v>65978.6</v>
+      </c>
+      <c r="BV11" s="1" t="n">
+        <v>130218</v>
+      </c>
+      <c r="BW11" s="1" t="n">
+        <v>140733</v>
+      </c>
+      <c r="BX11" s="1" t="n">
+        <v>234940</v>
+      </c>
+      <c r="BY11" s="1" t="n">
+        <v>272426</v>
+      </c>
+      <c r="BZ11" s="1" t="n">
+        <v>614190</v>
+      </c>
+      <c r="CA11" s="1" t="n">
+        <v>538714</v>
+      </c>
+      <c r="CB11" s="1" t="n">
+        <v>385263</v>
+      </c>
+      <c r="CC11" s="1" t="n">
+        <v>29336.4</v>
+      </c>
+      <c r="CD11" s="1" t="n">
+        <v>269576</v>
+      </c>
+      <c r="CE11" s="1" t="n">
+        <v>442355</v>
+      </c>
+      <c r="CF11" s="1" t="n">
+        <v>17183.5</v>
+      </c>
+      <c r="CG11" s="1" t="n">
+        <v>253076</v>
+      </c>
+      <c r="CH11" s="1" t="n">
+        <v>478542</v>
+      </c>
+      <c r="CI11" s="1" t="n">
+        <v>11010.1</v>
+      </c>
+      <c r="CJ11" s="1" t="n">
+        <v>232320</v>
+      </c>
+      <c r="CK11" s="1" t="n">
+        <v>1000040</v>
+      </c>
+      <c r="CL11" s="1" t="n">
+        <v>478153</v>
+      </c>
+      <c r="CM11" s="1" t="n">
+        <v>101738</v>
+      </c>
+      <c r="CN11" s="1" t="n">
+        <v>884058</v>
+      </c>
+      <c r="CO11" s="1" t="n">
+        <v>280722</v>
+      </c>
+      <c r="CP11" s="1" t="n">
+        <v>726041</v>
+      </c>
+      <c r="CQ11" s="1" t="n">
+        <v>735943</v>
+      </c>
+      <c r="CR11" s="1" t="n">
+        <v>46117.4</v>
+      </c>
+      <c r="CS11" s="1" t="n">
+        <v>752882</v>
+      </c>
+      <c r="CT11" s="1" t="n">
+        <v>765456</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>214768</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>94714.6</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>211658</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>242421</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>245467</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>87805.2</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>15712.5</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>75279.4</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>237550</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>29735.5</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>22401</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>59044.1</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>5042.8</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>54641.1</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>64755.7</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>40897.9</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>17112</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>24466.8</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>40315.3</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>100373</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>95351.3</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>109018</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>40410</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>111466</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>66849.7</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>20548.2</v>
-      </c>
-      <c r="AB12" s="0" t="n">
-        <v>58727.3</v>
-      </c>
-      <c r="AC12" s="0" t="n">
-        <v>63453.4</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <v>80412.3</v>
-      </c>
-      <c r="AE12" s="0" t="n">
-        <v>159015</v>
-      </c>
-      <c r="AF12" s="0" t="n">
+      <c r="B12" s="1" t="n">
+        <v>206920</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>103530</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>209795</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>244304</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>252858</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>91578</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>16603.2</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>83140</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>241708</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>29883.8</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>24089.7</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>59064.9</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>5486</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>53012.3</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>64647.6</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>43911.9</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>19031.1</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>25698.3</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>41883.2</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>100756</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>98019</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>107886</v>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>43704.7</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>112995</v>
+      </c>
+      <c r="Z12" s="1" t="n">
+        <v>66082</v>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <v>22619.4</v>
+      </c>
+      <c r="AB12" s="1" t="n">
+        <v>63271.8</v>
+      </c>
+      <c r="AC12" s="1" t="n">
+        <v>66822.2</v>
+      </c>
+      <c r="AD12" s="1" t="n">
+        <v>84673.5</v>
+      </c>
+      <c r="AE12" s="1" t="n">
+        <v>154667</v>
+      </c>
+      <c r="AF12" s="1" t="n">
         <v>192165</v>
       </c>
-      <c r="AG12" s="0" t="n">
-        <v>115121</v>
-      </c>
-      <c r="AH12" s="0" t="n">
-        <v>71957.8</v>
-      </c>
-      <c r="AI12" s="0" t="n">
-        <v>88231.6</v>
-      </c>
-      <c r="AJ12" s="0" t="n">
-        <v>35140.4</v>
-      </c>
-      <c r="AK12" s="0" t="n">
-        <v>157874</v>
-      </c>
-      <c r="AL12" s="0" t="n">
-        <v>132680</v>
-      </c>
-      <c r="AM12" s="0" t="n">
-        <v>25603.2</v>
-      </c>
-      <c r="AN12" s="0" t="n">
-        <v>123890</v>
-      </c>
-      <c r="AO12" s="0" t="n">
-        <v>385310</v>
-      </c>
-      <c r="AP12" s="0" t="n">
-        <v>970424</v>
-      </c>
-      <c r="AQ12" s="0" t="n">
-        <v>289945</v>
-      </c>
-      <c r="AR12" s="0" t="n">
-        <v>38193.2</v>
-      </c>
-      <c r="AS12" s="0" t="n">
-        <v>109034</v>
-      </c>
-      <c r="AT12" s="0" t="n">
-        <v>821397</v>
-      </c>
-      <c r="AU12" s="0" t="n">
-        <v>50503.9</v>
-      </c>
-      <c r="AV12" s="0" t="n">
-        <v>727610</v>
-      </c>
-      <c r="AW12" s="0" t="n">
-        <v>821414</v>
-      </c>
-      <c r="AX12" s="0" t="n">
-        <v>666210</v>
-      </c>
-      <c r="AY12" s="0" t="n">
-        <v>45666.3</v>
-      </c>
-      <c r="AZ12" s="0" t="n">
-        <v>205954</v>
-      </c>
-      <c r="BA12" s="0" t="n">
-        <v>246876</v>
-      </c>
-      <c r="BB12" s="0" t="n">
-        <v>224242</v>
-      </c>
-      <c r="BC12" s="0" t="n">
-        <v>195108</v>
-      </c>
-      <c r="BD12" s="0" t="n">
-        <v>82181.4</v>
-      </c>
-      <c r="BE12" s="0" t="n">
-        <v>56922.9</v>
-      </c>
-      <c r="BF12" s="0" t="n">
-        <v>150570</v>
-      </c>
-      <c r="BG12" s="0" t="n">
-        <v>48263.8</v>
-      </c>
-      <c r="BH12" s="0" t="n">
-        <v>297037</v>
-      </c>
-      <c r="BI12" s="0" t="n">
-        <v>379539</v>
-      </c>
-      <c r="BJ12" s="0" t="n">
-        <v>214890</v>
-      </c>
-      <c r="BK12" s="0" t="n">
-        <v>228932</v>
-      </c>
-      <c r="BL12" s="0" t="n">
-        <v>230145</v>
-      </c>
-      <c r="BM12" s="0" t="n">
-        <v>495709</v>
-      </c>
-      <c r="BN12" s="0" t="n">
-        <v>438019</v>
-      </c>
-      <c r="BO12" s="0" t="n">
-        <v>226998</v>
-      </c>
-      <c r="BP12" s="0" t="n">
-        <v>325417</v>
-      </c>
-      <c r="BQ12" s="0" t="n">
-        <v>101072</v>
-      </c>
-      <c r="BR12" s="0" t="n">
-        <v>143771</v>
-      </c>
-      <c r="BS12" s="0" t="n">
-        <v>465418</v>
-      </c>
-      <c r="BT12" s="0" t="n">
-        <v>295058</v>
-      </c>
-      <c r="BU12" s="0" t="n">
-        <v>66467.5</v>
-      </c>
-      <c r="BV12" s="0" t="n">
-        <v>127866</v>
-      </c>
-      <c r="BW12" s="0" t="n">
-        <v>143116</v>
-      </c>
-      <c r="BX12" s="0" t="n">
-        <v>233714</v>
-      </c>
-      <c r="BY12" s="0" t="n">
-        <v>264943</v>
-      </c>
-      <c r="BZ12" s="0" t="n">
-        <v>616396</v>
-      </c>
-      <c r="CA12" s="0" t="n">
-        <v>543643</v>
-      </c>
-      <c r="CB12" s="0" t="n">
-        <v>380931</v>
-      </c>
-      <c r="CC12" s="0" t="n">
-        <v>29412.2</v>
-      </c>
-      <c r="CD12" s="0" t="n">
-        <v>271312</v>
-      </c>
-      <c r="CE12" s="0" t="n">
-        <v>440904</v>
-      </c>
-      <c r="CF12" s="0" t="n">
-        <v>16474.3</v>
-      </c>
-      <c r="CG12" s="0" t="n">
-        <v>248974</v>
-      </c>
-      <c r="CH12" s="0" t="n">
-        <v>476996</v>
-      </c>
-      <c r="CI12" s="0" t="n">
-        <v>10951.4</v>
-      </c>
-      <c r="CJ12" s="0" t="n">
-        <v>226596</v>
-      </c>
-      <c r="CK12" s="0" t="n">
-        <v>1003640</v>
-      </c>
-      <c r="CL12" s="0" t="n">
-        <v>473597</v>
-      </c>
-      <c r="CM12" s="0" t="n">
-        <v>98093.3</v>
-      </c>
-      <c r="CN12" s="0" t="n">
-        <v>866739</v>
-      </c>
-      <c r="CO12" s="0" t="n">
-        <v>274122</v>
-      </c>
-      <c r="CP12" s="0" t="n">
-        <v>728140</v>
-      </c>
-      <c r="CQ12" s="0" t="n">
-        <v>718953</v>
-      </c>
-      <c r="CR12" s="0" t="n">
-        <v>45966.5</v>
-      </c>
-      <c r="CS12" s="0" t="n">
-        <v>753524</v>
-      </c>
-      <c r="CT12" s="0" t="n">
-        <v>763101</v>
+      <c r="AG12" s="1" t="n">
+        <v>117142</v>
+      </c>
+      <c r="AH12" s="1" t="n">
+        <v>79317.9</v>
+      </c>
+      <c r="AI12" s="1" t="n">
+        <v>92697.2</v>
+      </c>
+      <c r="AJ12" s="1" t="n">
+        <v>36723.6</v>
+      </c>
+      <c r="AK12" s="1" t="n">
+        <v>153819</v>
+      </c>
+      <c r="AL12" s="1" t="n">
+        <v>136104</v>
+      </c>
+      <c r="AM12" s="1" t="n">
+        <v>27990.6</v>
+      </c>
+      <c r="AN12" s="1" t="n">
+        <v>128482</v>
+      </c>
+      <c r="AO12" s="1" t="n">
+        <v>399299</v>
+      </c>
+      <c r="AP12" s="1" t="n">
+        <v>986919</v>
+      </c>
+      <c r="AQ12" s="1" t="n">
+        <v>312284</v>
+      </c>
+      <c r="AR12" s="1" t="n">
+        <v>40796.2</v>
+      </c>
+      <c r="AS12" s="1" t="n">
+        <v>110814</v>
+      </c>
+      <c r="AT12" s="1" t="n">
+        <v>812845</v>
+      </c>
+      <c r="AU12" s="1" t="n">
+        <v>52601.8</v>
+      </c>
+      <c r="AV12" s="1" t="n">
+        <v>751125</v>
+      </c>
+      <c r="AW12" s="1" t="n">
+        <v>814260</v>
+      </c>
+      <c r="AX12" s="1" t="n">
+        <v>689135</v>
+      </c>
+      <c r="AY12" s="1" t="n">
+        <v>48093.4</v>
+      </c>
+      <c r="AZ12" s="1" t="n">
+        <v>208426</v>
+      </c>
+      <c r="BA12" s="1" t="n">
+        <v>246280</v>
+      </c>
+      <c r="BB12" s="1" t="n">
+        <v>222950</v>
+      </c>
+      <c r="BC12" s="1" t="n">
+        <v>196374</v>
+      </c>
+      <c r="BD12" s="1" t="n">
+        <v>83490.9</v>
+      </c>
+      <c r="BE12" s="1" t="n">
+        <v>59330.9</v>
+      </c>
+      <c r="BF12" s="1" t="n">
+        <v>156718</v>
+      </c>
+      <c r="BG12" s="1" t="n">
+        <v>51702</v>
+      </c>
+      <c r="BH12" s="1" t="n">
+        <v>305159</v>
+      </c>
+      <c r="BI12" s="1" t="n">
+        <v>382144</v>
+      </c>
+      <c r="BJ12" s="1" t="n">
+        <v>224728</v>
+      </c>
+      <c r="BK12" s="1" t="n">
+        <v>241122</v>
+      </c>
+      <c r="BL12" s="1" t="n">
+        <v>232282</v>
+      </c>
+      <c r="BM12" s="1" t="n">
+        <v>495487</v>
+      </c>
+      <c r="BN12" s="1" t="n">
+        <v>432395</v>
+      </c>
+      <c r="BO12" s="1" t="n">
+        <v>239364</v>
+      </c>
+      <c r="BP12" s="1" t="n">
+        <v>339207</v>
+      </c>
+      <c r="BQ12" s="1" t="n">
+        <v>113809</v>
+      </c>
+      <c r="BR12" s="1" t="n">
+        <v>149689</v>
+      </c>
+      <c r="BS12" s="1" t="n">
+        <v>472435</v>
+      </c>
+      <c r="BT12" s="1" t="n">
+        <v>298318</v>
+      </c>
+      <c r="BU12" s="1" t="n">
+        <v>68100.8</v>
+      </c>
+      <c r="BV12" s="1" t="n">
+        <v>133647</v>
+      </c>
+      <c r="BW12" s="1" t="n">
+        <v>144672</v>
+      </c>
+      <c r="BX12" s="1" t="n">
+        <v>242085</v>
+      </c>
+      <c r="BY12" s="1" t="n">
+        <v>282314</v>
+      </c>
+      <c r="BZ12" s="1" t="n">
+        <v>616221</v>
+      </c>
+      <c r="CA12" s="1" t="n">
+        <v>549955</v>
+      </c>
+      <c r="CB12" s="1" t="n">
+        <v>387686</v>
+      </c>
+      <c r="CC12" s="1" t="n">
+        <v>30862.2</v>
+      </c>
+      <c r="CD12" s="1" t="n">
+        <v>274429</v>
+      </c>
+      <c r="CE12" s="1" t="n">
+        <v>449768</v>
+      </c>
+      <c r="CF12" s="1" t="n">
+        <v>17749.3</v>
+      </c>
+      <c r="CG12" s="1" t="n">
+        <v>257021</v>
+      </c>
+      <c r="CH12" s="1" t="n">
+        <v>478906</v>
+      </c>
+      <c r="CI12" s="1" t="n">
+        <v>11555.1</v>
+      </c>
+      <c r="CJ12" s="1" t="n">
+        <v>237049</v>
+      </c>
+      <c r="CK12" s="1" t="n">
+        <v>1006820</v>
+      </c>
+      <c r="CL12" s="1" t="n">
+        <v>489484</v>
+      </c>
+      <c r="CM12" s="1" t="n">
+        <v>104518</v>
+      </c>
+      <c r="CN12" s="1" t="n">
+        <v>888476</v>
+      </c>
+      <c r="CO12" s="1" t="n">
+        <v>289630</v>
+      </c>
+      <c r="CP12" s="1" t="n">
+        <v>731026</v>
+      </c>
+      <c r="CQ12" s="1" t="n">
+        <v>748388</v>
+      </c>
+      <c r="CR12" s="1" t="n">
+        <v>50040.1</v>
+      </c>
+      <c r="CS12" s="1" t="n">
+        <v>767150</v>
+      </c>
+      <c r="CT12" s="1" t="n">
+        <v>781349</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>217044</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>97048.4</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>215749</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>245869</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>248639</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>87845.6</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>15826.5</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>75279.4</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>239015</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>29858.3</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>22401</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>58999.5</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>5042.8</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>55367.3</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>64755.7</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>40931.6</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>17112</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>24466.8</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>40873.6</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>100409</v>
-      </c>
-      <c r="V13" s="0" t="n">
-        <v>95351.3</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>109678</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>40410</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>112030</v>
-      </c>
-      <c r="Z13" s="0" t="n">
-        <v>66987.8</v>
-      </c>
-      <c r="AA13" s="0" t="n">
-        <v>20548.2</v>
-      </c>
-      <c r="AB13" s="0" t="n">
-        <v>58806.5</v>
-      </c>
-      <c r="AC13" s="0" t="n">
-        <v>64037.6</v>
-      </c>
-      <c r="AD13" s="0" t="n">
-        <v>81216.3</v>
-      </c>
-      <c r="AE13" s="0" t="n">
-        <v>160132</v>
-      </c>
-      <c r="AF13" s="0" t="n">
+      <c r="B13" s="1" t="n">
+        <v>209539</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>103530</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>212433</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>246101</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>252802</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>91630.1</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>16603.2</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>83649.7</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>242955</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>29914.9</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>24185.2</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>59835</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>5542.9</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>53361.6</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>64647.6</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>43911.9</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>19031.1</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>25698.3</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>41952.3</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>101852</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>98019</v>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>107774</v>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>43892.4</v>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>113698</v>
+      </c>
+      <c r="Z13" s="1" t="n">
+        <v>66326.8</v>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>22619.4</v>
+      </c>
+      <c r="AB13" s="1" t="n">
+        <v>63271.8</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>66822.2</v>
+      </c>
+      <c r="AD13" s="1" t="n">
+        <v>84909.3</v>
+      </c>
+      <c r="AE13" s="1" t="n">
+        <v>157397</v>
+      </c>
+      <c r="AF13" s="1" t="n">
         <v>192165</v>
       </c>
-      <c r="AG13" s="0" t="n">
-        <v>115125</v>
-      </c>
-      <c r="AH13" s="0" t="n">
-        <v>72602.1</v>
-      </c>
-      <c r="AI13" s="0" t="n">
-        <v>88231.6</v>
-      </c>
-      <c r="AJ13" s="0" t="n">
-        <v>35140.4</v>
-      </c>
-      <c r="AK13" s="0" t="n">
-        <v>159330</v>
-      </c>
-      <c r="AL13" s="0" t="n">
-        <v>133080</v>
-      </c>
-      <c r="AM13" s="0" t="n">
-        <v>25603.2</v>
-      </c>
-      <c r="AN13" s="0" t="n">
-        <v>124458</v>
-      </c>
-      <c r="AO13" s="0" t="n">
-        <v>385283</v>
-      </c>
-      <c r="AP13" s="0" t="n">
-        <v>973038</v>
-      </c>
-      <c r="AQ13" s="0" t="n">
-        <v>292199</v>
-      </c>
-      <c r="AR13" s="0" t="n">
-        <v>38258.2</v>
-      </c>
-      <c r="AS13" s="0" t="n">
-        <v>109034</v>
-      </c>
-      <c r="AT13" s="0" t="n">
-        <v>830140</v>
-      </c>
-      <c r="AU13" s="0" t="n">
-        <v>50510.8</v>
-      </c>
-      <c r="AV13" s="0" t="n">
-        <v>735130</v>
-      </c>
-      <c r="AW13" s="0" t="n">
-        <v>825098</v>
-      </c>
-      <c r="AX13" s="0" t="n">
-        <v>668384</v>
-      </c>
-      <c r="AY13" s="0" t="n">
-        <v>46044.4</v>
-      </c>
-      <c r="AZ13" s="0" t="n">
-        <v>208594</v>
-      </c>
-      <c r="BA13" s="0" t="n">
-        <v>247912</v>
-      </c>
-      <c r="BB13" s="0" t="n">
-        <v>224333</v>
-      </c>
-      <c r="BC13" s="0" t="n">
-        <v>195678</v>
-      </c>
-      <c r="BD13" s="0" t="n">
-        <v>82463.6</v>
-      </c>
-      <c r="BE13" s="0" t="n">
-        <v>56987</v>
-      </c>
-      <c r="BF13" s="0" t="n">
-        <v>152436</v>
-      </c>
-      <c r="BG13" s="0" t="n">
-        <v>48315.1</v>
-      </c>
-      <c r="BH13" s="0" t="n">
-        <v>297502</v>
-      </c>
-      <c r="BI13" s="0" t="n">
-        <v>385242</v>
-      </c>
-      <c r="BJ13" s="0" t="n">
-        <v>217100</v>
-      </c>
-      <c r="BK13" s="0" t="n">
-        <v>229802</v>
-      </c>
-      <c r="BL13" s="0" t="n">
-        <v>230339</v>
-      </c>
-      <c r="BM13" s="0" t="n">
-        <v>496905</v>
-      </c>
-      <c r="BN13" s="0" t="n">
-        <v>440061</v>
-      </c>
-      <c r="BO13" s="0" t="n">
-        <v>227182</v>
-      </c>
-      <c r="BP13" s="0" t="n">
-        <v>325917</v>
-      </c>
-      <c r="BQ13" s="0" t="n">
-        <v>101287</v>
-      </c>
-      <c r="BR13" s="0" t="n">
-        <v>145154</v>
-      </c>
-      <c r="BS13" s="0" t="n">
-        <v>470447</v>
-      </c>
-      <c r="BT13" s="0" t="n">
-        <v>295811</v>
-      </c>
-      <c r="BU13" s="0" t="n">
-        <v>66388.7</v>
-      </c>
-      <c r="BV13" s="0" t="n">
-        <v>127944</v>
-      </c>
-      <c r="BW13" s="0" t="n">
-        <v>143116</v>
-      </c>
-      <c r="BX13" s="0" t="n">
-        <v>233714</v>
-      </c>
-      <c r="BY13" s="0" t="n">
-        <v>272008</v>
-      </c>
-      <c r="BZ13" s="0" t="n">
-        <v>621152</v>
-      </c>
-      <c r="CA13" s="0" t="n">
-        <v>544270</v>
-      </c>
-      <c r="CB13" s="0" t="n">
-        <v>381617</v>
-      </c>
-      <c r="CC13" s="0" t="n">
-        <v>29753.7</v>
-      </c>
-      <c r="CD13" s="0" t="n">
-        <v>275200</v>
-      </c>
-      <c r="CE13" s="0" t="n">
-        <v>443805</v>
-      </c>
-      <c r="CF13" s="0" t="n">
-        <v>16474.3</v>
-      </c>
-      <c r="CG13" s="0" t="n">
-        <v>251244</v>
-      </c>
-      <c r="CH13" s="0" t="n">
-        <v>481899</v>
-      </c>
-      <c r="CI13" s="0" t="n">
-        <v>10951.4</v>
-      </c>
-      <c r="CJ13" s="0" t="n">
-        <v>227958</v>
-      </c>
-      <c r="CK13" s="0" t="n">
-        <v>1009010</v>
-      </c>
-      <c r="CL13" s="0" t="n">
-        <v>473597</v>
-      </c>
-      <c r="CM13" s="0" t="n">
-        <v>98609.7</v>
-      </c>
-      <c r="CN13" s="0" t="n">
-        <v>872018</v>
-      </c>
-      <c r="CO13" s="0" t="n">
-        <v>278649</v>
-      </c>
-      <c r="CP13" s="0" t="n">
-        <v>729200</v>
-      </c>
-      <c r="CQ13" s="0" t="n">
-        <v>722655</v>
-      </c>
-      <c r="CR13" s="0" t="n">
-        <v>45966.5</v>
-      </c>
-      <c r="CS13" s="0" t="n">
-        <v>754506</v>
-      </c>
-      <c r="CT13" s="0" t="n">
-        <v>770182</v>
+      <c r="AG13" s="1" t="n">
+        <v>117307</v>
+      </c>
+      <c r="AH13" s="1" t="n">
+        <v>79317.9</v>
+      </c>
+      <c r="AI13" s="1" t="n">
+        <v>92697.2</v>
+      </c>
+      <c r="AJ13" s="1" t="n">
+        <v>36723.6</v>
+      </c>
+      <c r="AK13" s="1" t="n">
+        <v>158782</v>
+      </c>
+      <c r="AL13" s="1" t="n">
+        <v>136104</v>
+      </c>
+      <c r="AM13" s="1" t="n">
+        <v>27990.6</v>
+      </c>
+      <c r="AN13" s="1" t="n">
+        <v>128540</v>
+      </c>
+      <c r="AO13" s="1" t="n">
+        <v>399916</v>
+      </c>
+      <c r="AP13" s="1" t="n">
+        <v>987677</v>
+      </c>
+      <c r="AQ13" s="1" t="n">
+        <v>312336</v>
+      </c>
+      <c r="AR13" s="1" t="n">
+        <v>40796.2</v>
+      </c>
+      <c r="AS13" s="1" t="n">
+        <v>110884</v>
+      </c>
+      <c r="AT13" s="1" t="n">
+        <v>823470</v>
+      </c>
+      <c r="AU13" s="1" t="n">
+        <v>53122.1</v>
+      </c>
+      <c r="AV13" s="1" t="n">
+        <v>751144</v>
+      </c>
+      <c r="AW13" s="1" t="n">
+        <v>819402</v>
+      </c>
+      <c r="AX13" s="1" t="n">
+        <v>690048</v>
+      </c>
+      <c r="AY13" s="1" t="n">
+        <v>48093.4</v>
+      </c>
+      <c r="AZ13" s="1" t="n">
+        <v>209443</v>
+      </c>
+      <c r="BA13" s="1" t="n">
+        <v>246501</v>
+      </c>
+      <c r="BB13" s="1" t="n">
+        <v>224521</v>
+      </c>
+      <c r="BC13" s="1" t="n">
+        <v>196995</v>
+      </c>
+      <c r="BD13" s="1" t="n">
+        <v>84188.3</v>
+      </c>
+      <c r="BE13" s="1" t="n">
+        <v>59330.9</v>
+      </c>
+      <c r="BF13" s="1" t="n">
+        <v>156802</v>
+      </c>
+      <c r="BG13" s="1" t="n">
+        <v>51786.3</v>
+      </c>
+      <c r="BH13" s="1" t="n">
+        <v>305730</v>
+      </c>
+      <c r="BI13" s="1" t="n">
+        <v>384555</v>
+      </c>
+      <c r="BJ13" s="1" t="n">
+        <v>224728</v>
+      </c>
+      <c r="BK13" s="1" t="n">
+        <v>241961</v>
+      </c>
+      <c r="BL13" s="1" t="n">
+        <v>232282</v>
+      </c>
+      <c r="BM13" s="1" t="n">
+        <v>500202</v>
+      </c>
+      <c r="BN13" s="1" t="n">
+        <v>439105</v>
+      </c>
+      <c r="BO13" s="1" t="n">
+        <v>240232</v>
+      </c>
+      <c r="BP13" s="1" t="n">
+        <v>340110</v>
+      </c>
+      <c r="BQ13" s="1" t="n">
+        <v>113875</v>
+      </c>
+      <c r="BR13" s="1" t="n">
+        <v>150405</v>
+      </c>
+      <c r="BS13" s="1" t="n">
+        <v>472473</v>
+      </c>
+      <c r="BT13" s="1" t="n">
+        <v>300671</v>
+      </c>
+      <c r="BU13" s="1" t="n">
+        <v>68275.3</v>
+      </c>
+      <c r="BV13" s="1" t="n">
+        <v>134413</v>
+      </c>
+      <c r="BW13" s="1" t="n">
+        <v>145040</v>
+      </c>
+      <c r="BX13" s="1" t="n">
+        <v>243364</v>
+      </c>
+      <c r="BY13" s="1" t="n">
+        <v>284800</v>
+      </c>
+      <c r="BZ13" s="1" t="n">
+        <v>624285</v>
+      </c>
+      <c r="CA13" s="1" t="n">
+        <v>555209</v>
+      </c>
+      <c r="CB13" s="1" t="n">
+        <v>391020</v>
+      </c>
+      <c r="CC13" s="1" t="n">
+        <v>31092.9</v>
+      </c>
+      <c r="CD13" s="1" t="n">
+        <v>275367</v>
+      </c>
+      <c r="CE13" s="1" t="n">
+        <v>452724</v>
+      </c>
+      <c r="CF13" s="1" t="n">
+        <v>17749.3</v>
+      </c>
+      <c r="CG13" s="1" t="n">
+        <v>257095</v>
+      </c>
+      <c r="CH13" s="1" t="n">
+        <v>482461</v>
+      </c>
+      <c r="CI13" s="1" t="n">
+        <v>11650.3</v>
+      </c>
+      <c r="CJ13" s="1" t="n">
+        <v>238494</v>
+      </c>
+      <c r="CK13" s="1" t="n">
+        <v>1011570</v>
+      </c>
+      <c r="CL13" s="1" t="n">
+        <v>492302</v>
+      </c>
+      <c r="CM13" s="1" t="n">
+        <v>106139</v>
+      </c>
+      <c r="CN13" s="1" t="n">
+        <v>892709</v>
+      </c>
+      <c r="CO13" s="1" t="n">
+        <v>289630</v>
+      </c>
+      <c r="CP13" s="1" t="n">
+        <v>738980</v>
+      </c>
+      <c r="CQ13" s="1" t="n">
+        <v>751206</v>
+      </c>
+      <c r="CR13" s="1" t="n">
+        <v>50057</v>
+      </c>
+      <c r="CS13" s="1" t="n">
+        <v>771719</v>
+      </c>
+      <c r="CT13" s="1" t="n">
+        <v>784023</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>221617</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>98253.3</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>219523</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>247928</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>250853</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>92156.1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>15955.4</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>76308.7</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>239555</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>30598.5</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>22898.4</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>60044.9</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>5204.4</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>57222.5</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>64755.7</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>42569.7</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>17737.6</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>25011</v>
-      </c>
-      <c r="T14" s="0" t="n">
-        <v>41759.6</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>103173</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>96531.4</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>111251</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>40916.9</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>114369</v>
-      </c>
-      <c r="Z14" s="0" t="n">
-        <v>67991.1</v>
-      </c>
-      <c r="AA14" s="0" t="n">
-        <v>20936.5</v>
-      </c>
-      <c r="AB14" s="0" t="n">
-        <v>60677.4</v>
-      </c>
-      <c r="AC14" s="0" t="n">
-        <v>64816.4</v>
-      </c>
-      <c r="AD14" s="0" t="n">
-        <v>82864.4</v>
-      </c>
-      <c r="AE14" s="0" t="n">
-        <v>161521</v>
-      </c>
-      <c r="AF14" s="0" t="n">
+      <c r="B14" s="1" t="n">
+        <v>219864</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>106644</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>216595</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>248105</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>253388</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>95297.3</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>17133.1</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>84966</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>243852</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>30364.5</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>26062.3</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>60249.4</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>5626.7</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>54444.1</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>64737.7</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>44841.8</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>19890</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>26539.1</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>42791.1</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>103551</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <v>100940</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>108471</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>46296</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>114484</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <v>68885.4</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>23652</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>65208.6</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>69133.6</v>
+      </c>
+      <c r="AD14" s="1" t="n">
+        <v>87440.9</v>
+      </c>
+      <c r="AE14" s="1" t="n">
+        <v>160518</v>
+      </c>
+      <c r="AF14" s="1" t="n">
         <v>192165</v>
       </c>
-      <c r="AG14" s="0" t="n">
-        <v>117378</v>
-      </c>
-      <c r="AH14" s="0" t="n">
-        <v>73665.1</v>
-      </c>
-      <c r="AI14" s="0" t="n">
-        <v>88807.8</v>
-      </c>
-      <c r="AJ14" s="0" t="n">
-        <v>35560.5</v>
-      </c>
-      <c r="AK14" s="0" t="n">
-        <v>162411</v>
-      </c>
-      <c r="AL14" s="0" t="n">
-        <v>135105</v>
-      </c>
-      <c r="AM14" s="0" t="n">
-        <v>25873</v>
-      </c>
-      <c r="AN14" s="0" t="n">
-        <v>126025</v>
-      </c>
-      <c r="AO14" s="0" t="n">
-        <v>390766</v>
-      </c>
-      <c r="AP14" s="0" t="n">
-        <v>977085</v>
-      </c>
-      <c r="AQ14" s="0" t="n">
-        <v>304273</v>
-      </c>
-      <c r="AR14" s="0" t="n">
-        <v>39293.9</v>
-      </c>
-      <c r="AS14" s="0" t="n">
-        <v>112060</v>
-      </c>
-      <c r="AT14" s="0" t="n">
-        <v>840972</v>
-      </c>
-      <c r="AU14" s="0" t="n">
-        <v>51276.4</v>
-      </c>
-      <c r="AV14" s="0" t="n">
-        <v>757150</v>
-      </c>
-      <c r="AW14" s="0" t="n">
-        <v>831409</v>
-      </c>
-      <c r="AX14" s="0" t="n">
-        <v>677472</v>
-      </c>
-      <c r="AY14" s="0" t="n">
-        <v>48646.9</v>
-      </c>
-      <c r="AZ14" s="0" t="n">
-        <v>214824</v>
-      </c>
-      <c r="BA14" s="0" t="n">
-        <v>248691</v>
-      </c>
-      <c r="BB14" s="0" t="n">
-        <v>224360</v>
-      </c>
-      <c r="BC14" s="0" t="n">
-        <v>198513</v>
-      </c>
-      <c r="BD14" s="0" t="n">
-        <v>85587.8</v>
-      </c>
-      <c r="BE14" s="0" t="n">
-        <v>59990</v>
-      </c>
-      <c r="BF14" s="0" t="n">
-        <v>156529</v>
-      </c>
-      <c r="BG14" s="0" t="n">
-        <v>49435.4</v>
-      </c>
-      <c r="BH14" s="0" t="n">
-        <v>301487</v>
-      </c>
-      <c r="BI14" s="0" t="n">
-        <v>390431</v>
-      </c>
-      <c r="BJ14" s="0" t="n">
-        <v>224043</v>
-      </c>
-      <c r="BK14" s="0" t="n">
-        <v>239838</v>
-      </c>
-      <c r="BL14" s="0" t="n">
-        <v>232287</v>
-      </c>
-      <c r="BM14" s="0" t="n">
-        <v>498734</v>
-      </c>
-      <c r="BN14" s="0" t="n">
-        <v>443935</v>
-      </c>
-      <c r="BO14" s="0" t="n">
-        <v>235221</v>
-      </c>
-      <c r="BP14" s="0" t="n">
-        <v>331460</v>
-      </c>
-      <c r="BQ14" s="0" t="n">
-        <v>104761</v>
-      </c>
-      <c r="BR14" s="0" t="n">
-        <v>147578</v>
-      </c>
-      <c r="BS14" s="0" t="n">
-        <v>472756</v>
-      </c>
-      <c r="BT14" s="0" t="n">
-        <v>299976</v>
-      </c>
-      <c r="BU14" s="0" t="n">
-        <v>71193.7</v>
-      </c>
-      <c r="BV14" s="0" t="n">
-        <v>129114</v>
-      </c>
-      <c r="BW14" s="0" t="n">
-        <v>147400</v>
-      </c>
-      <c r="BX14" s="0" t="n">
-        <v>243820</v>
-      </c>
-      <c r="BY14" s="0" t="n">
-        <v>282801</v>
-      </c>
-      <c r="BZ14" s="0" t="n">
-        <v>626083</v>
-      </c>
-      <c r="CA14" s="0" t="n">
-        <v>554874</v>
-      </c>
-      <c r="CB14" s="0" t="n">
-        <v>391362</v>
-      </c>
-      <c r="CC14" s="0" t="n">
-        <v>32061.2</v>
-      </c>
-      <c r="CD14" s="0" t="n">
-        <v>279111</v>
-      </c>
-      <c r="CE14" s="0" t="n">
-        <v>445519</v>
-      </c>
-      <c r="CF14" s="0" t="n">
-        <v>17790.2</v>
-      </c>
-      <c r="CG14" s="0" t="n">
-        <v>256710</v>
-      </c>
-      <c r="CH14" s="0" t="n">
-        <v>491117</v>
-      </c>
-      <c r="CI14" s="0" t="n">
-        <v>11353</v>
-      </c>
-      <c r="CJ14" s="0" t="n">
-        <v>231637</v>
-      </c>
-      <c r="CK14" s="0" t="n">
-        <v>1020630</v>
-      </c>
-      <c r="CL14" s="0" t="n">
-        <v>486131</v>
-      </c>
-      <c r="CM14" s="0" t="n">
-        <v>101909</v>
-      </c>
-      <c r="CN14" s="0" t="n">
-        <v>885860</v>
-      </c>
-      <c r="CO14" s="0" t="n">
-        <v>282799</v>
-      </c>
-      <c r="CP14" s="0" t="n">
-        <v>744593</v>
-      </c>
-      <c r="CQ14" s="0" t="n">
-        <v>735658</v>
-      </c>
-      <c r="CR14" s="0" t="n">
-        <v>47561.2</v>
-      </c>
-      <c r="CS14" s="0" t="n">
-        <v>769864</v>
-      </c>
-      <c r="CT14" s="0" t="n">
-        <v>783048</v>
+      <c r="AG14" s="1" t="n">
+        <v>121296</v>
+      </c>
+      <c r="AH14" s="1" t="n">
+        <v>81533.3</v>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <v>95386.4</v>
+      </c>
+      <c r="AJ14" s="1" t="n">
+        <v>38499.3</v>
+      </c>
+      <c r="AK14" s="1" t="n">
+        <v>165142</v>
+      </c>
+      <c r="AL14" s="1" t="n">
+        <v>138253</v>
+      </c>
+      <c r="AM14" s="1" t="n">
+        <v>29328.6</v>
+      </c>
+      <c r="AN14" s="1" t="n">
+        <v>131910</v>
+      </c>
+      <c r="AO14" s="1" t="n">
+        <v>417002</v>
+      </c>
+      <c r="AP14" s="1" t="n">
+        <v>988827</v>
+      </c>
+      <c r="AQ14" s="1" t="n">
+        <v>324300</v>
+      </c>
+      <c r="AR14" s="1" t="n">
+        <v>42088.6</v>
+      </c>
+      <c r="AS14" s="1" t="n">
+        <v>117664</v>
+      </c>
+      <c r="AT14" s="1" t="n">
+        <v>832584</v>
+      </c>
+      <c r="AU14" s="1" t="n">
+        <v>54521.3</v>
+      </c>
+      <c r="AV14" s="1" t="n">
+        <v>764894</v>
+      </c>
+      <c r="AW14" s="1" t="n">
+        <v>844737</v>
+      </c>
+      <c r="AX14" s="1" t="n">
+        <v>702529</v>
+      </c>
+      <c r="AY14" s="1" t="n">
+        <v>50540.8</v>
+      </c>
+      <c r="AZ14" s="1" t="n">
+        <v>212524</v>
+      </c>
+      <c r="BA14" s="1" t="n">
+        <v>246767</v>
+      </c>
+      <c r="BB14" s="1" t="n">
+        <v>227080</v>
+      </c>
+      <c r="BC14" s="1" t="n">
+        <v>205323</v>
+      </c>
+      <c r="BD14" s="1" t="n">
+        <v>87258.6</v>
+      </c>
+      <c r="BE14" s="1" t="n">
+        <v>63475.7</v>
+      </c>
+      <c r="BF14" s="1" t="n">
+        <v>160947</v>
+      </c>
+      <c r="BG14" s="1" t="n">
+        <v>54447.7</v>
+      </c>
+      <c r="BH14" s="1" t="n">
+        <v>312149</v>
+      </c>
+      <c r="BI14" s="1" t="n">
+        <v>390642</v>
+      </c>
+      <c r="BJ14" s="1" t="n">
+        <v>232423</v>
+      </c>
+      <c r="BK14" s="1" t="n">
+        <v>254756</v>
+      </c>
+      <c r="BL14" s="1" t="n">
+        <v>245108</v>
+      </c>
+      <c r="BM14" s="1" t="n">
+        <v>503170</v>
+      </c>
+      <c r="BN14" s="1" t="n">
+        <v>443605</v>
+      </c>
+      <c r="BO14" s="1" t="n">
+        <v>250903</v>
+      </c>
+      <c r="BP14" s="1" t="n">
+        <v>347241</v>
+      </c>
+      <c r="BQ14" s="1" t="n">
+        <v>116118</v>
+      </c>
+      <c r="BR14" s="1" t="n">
+        <v>158496</v>
+      </c>
+      <c r="BS14" s="1" t="n">
+        <v>482589</v>
+      </c>
+      <c r="BT14" s="1" t="n">
+        <v>316392</v>
+      </c>
+      <c r="BU14" s="1" t="n">
+        <v>73408.5</v>
+      </c>
+      <c r="BV14" s="1" t="n">
+        <v>145038</v>
+      </c>
+      <c r="BW14" s="1" t="n">
+        <v>150923</v>
+      </c>
+      <c r="BX14" s="1" t="n">
+        <v>252140</v>
+      </c>
+      <c r="BY14" s="1" t="n">
+        <v>294173</v>
+      </c>
+      <c r="BZ14" s="1" t="n">
+        <v>636085</v>
+      </c>
+      <c r="CA14" s="1" t="n">
+        <v>561872</v>
+      </c>
+      <c r="CB14" s="1" t="n">
+        <v>395356</v>
+      </c>
+      <c r="CC14" s="1" t="n">
+        <v>32970.6</v>
+      </c>
+      <c r="CD14" s="1" t="n">
+        <v>283328</v>
+      </c>
+      <c r="CE14" s="1" t="n">
+        <v>465464</v>
+      </c>
+      <c r="CF14" s="1" t="n">
+        <v>18399.3</v>
+      </c>
+      <c r="CG14" s="1" t="n">
+        <v>266353</v>
+      </c>
+      <c r="CH14" s="1" t="n">
+        <v>489172</v>
+      </c>
+      <c r="CI14" s="1" t="n">
+        <v>11968.1</v>
+      </c>
+      <c r="CJ14" s="1" t="n">
+        <v>243850</v>
+      </c>
+      <c r="CK14" s="1" t="n">
+        <v>1020030</v>
+      </c>
+      <c r="CL14" s="1" t="n">
+        <v>504860</v>
+      </c>
+      <c r="CM14" s="1" t="n">
+        <v>110755</v>
+      </c>
+      <c r="CN14" s="1" t="n">
+        <v>908079</v>
+      </c>
+      <c r="CO14" s="1" t="n">
+        <v>293292</v>
+      </c>
+      <c r="CP14" s="1" t="n">
+        <v>752671</v>
+      </c>
+      <c r="CQ14" s="1" t="n">
+        <v>773615</v>
+      </c>
+      <c r="CR14" s="1" t="n">
+        <v>52682.9</v>
+      </c>
+      <c r="CS14" s="1" t="n">
+        <v>781394</v>
+      </c>
+      <c r="CT14" s="1" t="n">
+        <v>794203</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>221617</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>98253.3</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>219523</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>247928</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>250853</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>92156.1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>15955.4</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>76308.7</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>239558</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>30598.5</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>22898.4</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>59974.6</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>5204.4</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>57222.5</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>64755.7</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>42569.7</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>17737.6</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>25011</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>41759.6</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>103173</v>
-      </c>
-      <c r="V15" s="0" t="n">
-        <v>96531.4</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>111572</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>40916.9</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>114390</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>67991.1</v>
-      </c>
-      <c r="AA15" s="0" t="n">
-        <v>20936.5</v>
-      </c>
-      <c r="AB15" s="0" t="n">
-        <v>60677.4</v>
-      </c>
-      <c r="AC15" s="0" t="n">
-        <v>64816.4</v>
-      </c>
-      <c r="AD15" s="0" t="n">
-        <v>82864.4</v>
-      </c>
-      <c r="AE15" s="0" t="n">
-        <v>161527</v>
-      </c>
-      <c r="AF15" s="0" t="n">
+      <c r="B15" s="1" t="n">
+        <v>219793</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>106644</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>216636</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>248116</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>253382</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>95297.3</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>17133.1</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>84966</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>243906</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>30364.5</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>26062.3</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>60353</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>5626.7</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>54432.5</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>64737.7</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>44841.8</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>19890</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>26539.1</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>42791.1</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>103551</v>
+      </c>
+      <c r="V15" s="1" t="n">
+        <v>100940</v>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>108817</v>
+      </c>
+      <c r="X15" s="1" t="n">
+        <v>46296</v>
+      </c>
+      <c r="Y15" s="1" t="n">
+        <v>114480</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <v>68885.4</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>23652</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>65208.6</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>69133.6</v>
+      </c>
+      <c r="AD15" s="1" t="n">
+        <v>87440.9</v>
+      </c>
+      <c r="AE15" s="1" t="n">
+        <v>160615</v>
+      </c>
+      <c r="AF15" s="1" t="n">
         <v>192165</v>
       </c>
-      <c r="AG15" s="0" t="n">
-        <v>117378</v>
-      </c>
-      <c r="AH15" s="0" t="n">
-        <v>73665.1</v>
-      </c>
-      <c r="AI15" s="0" t="n">
-        <v>88807.8</v>
-      </c>
-      <c r="AJ15" s="0" t="n">
-        <v>35560.5</v>
-      </c>
-      <c r="AK15" s="0" t="n">
-        <v>162411</v>
-      </c>
-      <c r="AL15" s="0" t="n">
-        <v>135105</v>
-      </c>
-      <c r="AM15" s="0" t="n">
-        <v>25873</v>
-      </c>
-      <c r="AN15" s="0" t="n">
-        <v>126025</v>
-      </c>
-      <c r="AO15" s="0" t="n">
-        <v>390766</v>
-      </c>
-      <c r="AP15" s="0" t="n">
-        <v>977193</v>
-      </c>
-      <c r="AQ15" s="0" t="n">
-        <v>304273</v>
-      </c>
-      <c r="AR15" s="0" t="n">
-        <v>39293.9</v>
-      </c>
-      <c r="AS15" s="0" t="n">
-        <v>112060</v>
-      </c>
-      <c r="AT15" s="0" t="n">
-        <v>840972</v>
-      </c>
-      <c r="AU15" s="0" t="n">
-        <v>51276.4</v>
-      </c>
-      <c r="AV15" s="0" t="n">
-        <v>757150</v>
-      </c>
-      <c r="AW15" s="0" t="n">
-        <v>831552</v>
-      </c>
-      <c r="AX15" s="0" t="n">
-        <v>677472</v>
-      </c>
-      <c r="AY15" s="0" t="n">
-        <v>48646.9</v>
-      </c>
-      <c r="AZ15" s="0" t="n">
-        <v>215110</v>
-      </c>
-      <c r="BA15" s="0" t="n">
-        <v>248979</v>
-      </c>
-      <c r="BB15" s="0" t="n">
-        <v>224603</v>
-      </c>
-      <c r="BC15" s="0" t="n">
-        <v>198513</v>
-      </c>
-      <c r="BD15" s="0" t="n">
-        <v>85587.8</v>
-      </c>
-      <c r="BE15" s="0" t="n">
-        <v>59990</v>
-      </c>
-      <c r="BF15" s="0" t="n">
-        <v>156529</v>
-      </c>
-      <c r="BG15" s="0" t="n">
-        <v>49595.9</v>
-      </c>
-      <c r="BH15" s="0" t="n">
-        <v>301487</v>
-      </c>
-      <c r="BI15" s="0" t="n">
-        <v>390431</v>
-      </c>
-      <c r="BJ15" s="0" t="n">
-        <v>224043</v>
-      </c>
-      <c r="BK15" s="0" t="n">
-        <v>239838</v>
-      </c>
-      <c r="BL15" s="0" t="n">
-        <v>232287</v>
-      </c>
-      <c r="BM15" s="0" t="n">
-        <v>498861</v>
-      </c>
-      <c r="BN15" s="0" t="n">
-        <v>444307</v>
-      </c>
-      <c r="BO15" s="0" t="n">
-        <v>235221</v>
-      </c>
-      <c r="BP15" s="0" t="n">
-        <v>331460</v>
-      </c>
-      <c r="BQ15" s="0" t="n">
-        <v>104761</v>
-      </c>
-      <c r="BR15" s="0" t="n">
-        <v>147578</v>
-      </c>
-      <c r="BS15" s="0" t="n">
-        <v>472756</v>
-      </c>
-      <c r="BT15" s="0" t="n">
-        <v>299976</v>
-      </c>
-      <c r="BU15" s="0" t="n">
-        <v>71193.7</v>
-      </c>
-      <c r="BV15" s="0" t="n">
-        <v>129114</v>
-      </c>
-      <c r="BW15" s="0" t="n">
-        <v>147400</v>
-      </c>
-      <c r="BX15" s="0" t="n">
-        <v>243820</v>
-      </c>
-      <c r="BY15" s="0" t="n">
-        <v>282801</v>
-      </c>
-      <c r="BZ15" s="0" t="n">
-        <v>626268</v>
-      </c>
-      <c r="CA15" s="0" t="n">
-        <v>554874</v>
-      </c>
-      <c r="CB15" s="0" t="n">
-        <v>391362</v>
-      </c>
-      <c r="CC15" s="0" t="n">
-        <v>32061.2</v>
-      </c>
-      <c r="CD15" s="0" t="n">
-        <v>279111</v>
-      </c>
-      <c r="CE15" s="0" t="n">
-        <v>445519</v>
-      </c>
-      <c r="CF15" s="0" t="n">
-        <v>17790.2</v>
-      </c>
-      <c r="CG15" s="0" t="n">
-        <v>256730</v>
-      </c>
-      <c r="CH15" s="0" t="n">
-        <v>491239</v>
-      </c>
-      <c r="CI15" s="0" t="n">
-        <v>11353</v>
-      </c>
-      <c r="CJ15" s="0" t="n">
-        <v>231637</v>
-      </c>
-      <c r="CK15" s="0" t="n">
-        <v>1021500</v>
-      </c>
-      <c r="CL15" s="0" t="n">
-        <v>486131</v>
-      </c>
-      <c r="CM15" s="0" t="n">
-        <v>101909</v>
-      </c>
-      <c r="CN15" s="0" t="n">
-        <v>886932</v>
-      </c>
-      <c r="CO15" s="0" t="n">
-        <v>283417</v>
-      </c>
-      <c r="CP15" s="0" t="n">
-        <v>744593</v>
-      </c>
-      <c r="CQ15" s="0" t="n">
-        <v>735658</v>
-      </c>
-      <c r="CR15" s="0" t="n">
-        <v>47561.2</v>
-      </c>
-      <c r="CS15" s="0" t="n">
-        <v>769864</v>
-      </c>
-      <c r="CT15" s="0" t="n">
-        <v>783048</v>
+      <c r="AG15" s="1" t="n">
+        <v>121296</v>
+      </c>
+      <c r="AH15" s="1" t="n">
+        <v>81533.3</v>
+      </c>
+      <c r="AI15" s="1" t="n">
+        <v>95386.4</v>
+      </c>
+      <c r="AJ15" s="1" t="n">
+        <v>38499.3</v>
+      </c>
+      <c r="AK15" s="1" t="n">
+        <v>165108</v>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <v>138253</v>
+      </c>
+      <c r="AM15" s="1" t="n">
+        <v>29328.6</v>
+      </c>
+      <c r="AN15" s="1" t="n">
+        <v>131910</v>
+      </c>
+      <c r="AO15" s="1" t="n">
+        <v>417002</v>
+      </c>
+      <c r="AP15" s="1" t="n">
+        <v>988754</v>
+      </c>
+      <c r="AQ15" s="1" t="n">
+        <v>324300</v>
+      </c>
+      <c r="AR15" s="1" t="n">
+        <v>42088.6</v>
+      </c>
+      <c r="AS15" s="1" t="n">
+        <v>117664</v>
+      </c>
+      <c r="AT15" s="1" t="n">
+        <v>833416</v>
+      </c>
+      <c r="AU15" s="1" t="n">
+        <v>54521.3</v>
+      </c>
+      <c r="AV15" s="1" t="n">
+        <v>764894</v>
+      </c>
+      <c r="AW15" s="1" t="n">
+        <v>844705</v>
+      </c>
+      <c r="AX15" s="1" t="n">
+        <v>702529</v>
+      </c>
+      <c r="AY15" s="1" t="n">
+        <v>50540.8</v>
+      </c>
+      <c r="AZ15" s="1" t="n">
+        <v>212901</v>
+      </c>
+      <c r="BA15" s="1" t="n">
+        <v>246721</v>
+      </c>
+      <c r="BB15" s="1" t="n">
+        <v>227823</v>
+      </c>
+      <c r="BC15" s="1" t="n">
+        <v>205323</v>
+      </c>
+      <c r="BD15" s="1" t="n">
+        <v>87258.6</v>
+      </c>
+      <c r="BE15" s="1" t="n">
+        <v>63475.7</v>
+      </c>
+      <c r="BF15" s="1" t="n">
+        <v>160947</v>
+      </c>
+      <c r="BG15" s="1" t="n">
+        <v>54447.7</v>
+      </c>
+      <c r="BH15" s="1" t="n">
+        <v>312149</v>
+      </c>
+      <c r="BI15" s="1" t="n">
+        <v>390919</v>
+      </c>
+      <c r="BJ15" s="1" t="n">
+        <v>232423</v>
+      </c>
+      <c r="BK15" s="1" t="n">
+        <v>254756</v>
+      </c>
+      <c r="BL15" s="1" t="n">
+        <v>245108</v>
+      </c>
+      <c r="BM15" s="1" t="n">
+        <v>503194</v>
+      </c>
+      <c r="BN15" s="1" t="n">
+        <v>443842</v>
+      </c>
+      <c r="BO15" s="1" t="n">
+        <v>250903</v>
+      </c>
+      <c r="BP15" s="1" t="n">
+        <v>347241</v>
+      </c>
+      <c r="BQ15" s="1" t="n">
+        <v>116118</v>
+      </c>
+      <c r="BR15" s="1" t="n">
+        <v>158496</v>
+      </c>
+      <c r="BS15" s="1" t="n">
+        <v>482589</v>
+      </c>
+      <c r="BT15" s="1" t="n">
+        <v>316392</v>
+      </c>
+      <c r="BU15" s="1" t="n">
+        <v>73408.5</v>
+      </c>
+      <c r="BV15" s="1" t="n">
+        <v>145038</v>
+      </c>
+      <c r="BW15" s="1" t="n">
+        <v>150923</v>
+      </c>
+      <c r="BX15" s="1" t="n">
+        <v>252140</v>
+      </c>
+      <c r="BY15" s="1" t="n">
+        <v>294173</v>
+      </c>
+      <c r="BZ15" s="1" t="n">
+        <v>636143</v>
+      </c>
+      <c r="CA15" s="1" t="n">
+        <v>561872</v>
+      </c>
+      <c r="CB15" s="1" t="n">
+        <v>395356</v>
+      </c>
+      <c r="CC15" s="1" t="n">
+        <v>32970.6</v>
+      </c>
+      <c r="CD15" s="1" t="n">
+        <v>283328</v>
+      </c>
+      <c r="CE15" s="1" t="n">
+        <v>465464</v>
+      </c>
+      <c r="CF15" s="1" t="n">
+        <v>18399.3</v>
+      </c>
+      <c r="CG15" s="1" t="n">
+        <v>266353</v>
+      </c>
+      <c r="CH15" s="1" t="n">
+        <v>489851</v>
+      </c>
+      <c r="CI15" s="1" t="n">
+        <v>11968.1</v>
+      </c>
+      <c r="CJ15" s="1" t="n">
+        <v>243850</v>
+      </c>
+      <c r="CK15" s="1" t="n">
+        <v>1022170</v>
+      </c>
+      <c r="CL15" s="1" t="n">
+        <v>504860</v>
+      </c>
+      <c r="CM15" s="1" t="n">
+        <v>110755</v>
+      </c>
+      <c r="CN15" s="1" t="n">
+        <v>908720</v>
+      </c>
+      <c r="CO15" s="1" t="n">
+        <v>293292</v>
+      </c>
+      <c r="CP15" s="1" t="n">
+        <v>752671</v>
+      </c>
+      <c r="CQ15" s="1" t="n">
+        <v>773615</v>
+      </c>
+      <c r="CR15" s="1" t="n">
+        <v>52682.9</v>
+      </c>
+      <c r="CS15" s="1" t="n">
+        <v>781394</v>
+      </c>
+      <c r="CT15" s="1" t="n">
+        <v>794203</v>
       </c>
     </row>
   </sheetData>

--- a/Subresultados/general.xlsx
+++ b/Subresultados/general.xlsx
@@ -424,10 +424,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:CT15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4888,10 +4888,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:CT15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9352,10 +9352,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="A1:CT15"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13816,10 +13816,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CT15" activeCellId="0" sqref="A1:CT15"/>
+      <selection pane="topLeft" activeCell="CT15" activeCellId="0" sqref="CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -18280,10 +18280,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="1" sqref="A1:CT15 G32"/>
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -22744,10 +22744,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="1" sqref="A1:CT15 G33"/>
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -27208,10 +27208,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A1:CT15"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -31672,10 +31672,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A1:CT15"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
